--- a/nirs_water_prediction/result/tmp_svr.xlsx
+++ b/nirs_water_prediction/result/tmp_svr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14122,6 +14122,119 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>6.4612</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2.4446</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2.5121</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2.5126</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>C=100</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>[0.73276915 0.72171919 0.69360253 0.69715863 0.72440112 0.72259257
+ 0.69802398 0.7153795  0.69456617 0.70221516 0.64160955 0.63897964
+ 0.62607671 0.6254681  0.63465087 0.63013664 0.62242092 0.62761922
+ 0.61356388 0.64100691 0.49150536 0.49082065 0.42145609 0.33847398
+ 0.33646675 0.32666878 0.32293772 0.70248455 0.72369617 0.64706384
+ 0.66563035 0.62737214 0.61761613 0.62608433 0.62691563 0.60981698
+ 0.65288894 0.59797721 0.55909454 0.7391657  0.72086421 0.7216968
+ 0.68574919 0.69291846 0.71905453 0.62714639 0.61435399 0.62452807
+ 0.605473   0.53916574 0.5462388  0.7063711  0.70692762 0.6104239
+ 0.59931446 0.61164119 0.60585324 0.58756005 0.51814748 0.52324563
+ 0.49861414 0.49482556 0.50323476 0.69898643 0.72044638 0.53018133
+ 0.54840714 0.62219402 0.5980742  0.64497235 0.62309274 0.4844161
+ 0.45570729 0.71334664 0.7241537  0.70490055 0.69656741 0.66530936
+ 0.68445378 0.5716162  0.59139654 0.10906607 0.10257171 0.62473002
+ 0.70722521 0.40699738 0.63199418 0.7199255  0.60960222 0.50271883
+ 0.63832858 0.4657641 ]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr.xlsx
+++ b/nirs_water_prediction/result/tmp_svr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14235,6 +14235,1701 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>6.4593</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>9.1640</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>9.2346</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>9.2345</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>C=100</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>[0.73282046 0.7216769  0.69360913 0.69715535 0.72443692 0.72261315
+ 0.69808061 0.71534199 0.69456254 0.70223998 0.64157956 0.63900275
+ 0.62601293 0.62542602 0.63465175 0.63013096 0.62240946 0.62764471
+ 0.61357685 0.64104178 0.49151504 0.49083228 0.42148966 0.33846626
+ 0.33647162 0.32666522 0.32299971 0.70246851 0.72373868 0.64706044
+ 0.66564844 0.62737659 0.61761143 0.62611339 0.62693114 0.60976501
+ 0.65287786 0.59797015 0.55905928 0.73919256 0.72083191 0.72170436
+ 0.68581026 0.6929347  0.71905405 0.62714057 0.61432896 0.62450169
+ 0.60552878 0.53912729 0.5462591  0.70635543 0.70692903 0.61046733
+ 0.5993676  0.61166365 0.60586294 0.58763793 0.51811884 0.52321608
+ 0.49858255 0.49483528 0.5032094  0.69895705 0.72041523 0.53005586
+ 0.54830601 0.6221968  0.59803902 0.6449768  0.62310415 0.48440767
+ 0.45569597 0.71334038 0.72414865 0.7049285  0.69660941 0.66530799
+ 0.68445911 0.57166042 0.59143887 0.10909161 0.10256279 0.6247059
+ 0.70719692 0.40702638 0.632009   0.71993059 0.60961432 0.5027017
+ 0.63834137 0.46574491]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>6.4602</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2.3901</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2.4551</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2.4550</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>C=100</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>[0.73276421 0.72177294 0.69363684 0.69712376 0.72440189 0.72259462
+ 0.69801565 0.71543859 0.69454651 0.70220013 0.64163763 0.63890687
+ 0.62608988 0.62544628 0.63468618 0.63013414 0.622463   0.62758874
+ 0.6135786  0.64104119 0.49157114 0.49083313 0.42151633 0.33845403
+ 0.33647188 0.3266963  0.32296705 0.70247996 0.72372404 0.64703457
+ 0.6656492  0.6274233  0.61763842 0.62607573 0.62688329 0.60982316
+ 0.65288945 0.59796606 0.55911154 0.73918173 0.72090958 0.72170532
+ 0.68574798 0.69294865 0.71905765 0.627136   0.61436385 0.62450978
+ 0.60544075 0.53913567 0.54624208 0.70636616 0.70690831 0.61039238
+ 0.59930002 0.61162663 0.60585664 0.587579   0.51813434 0.52331852
+ 0.49870227 0.49481934 0.50320608 0.69898658 0.72045202 0.53017633
+ 0.54838041 0.62223649 0.5980684  0.64498284 0.6231058  0.48448555
+ 0.45567922 0.71333525 0.72411969 0.70487384 0.6965395  0.66534808
+ 0.68444157 0.57162057 0.59143261 0.10911048 0.10256894 0.62472055
+ 0.7072057  0.40701544 0.6320263  0.71993038 0.60960092 0.50273856
+ 0.63834682 0.46577941]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.9960</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.9894</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>9.6976</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>3.4295</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>3.5856</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>3.5858</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>[0.72638578 0.69506562 0.72745617 0.74779058 0.71589653 0.72622962
+ 0.69719134 0.69417299 0.68682391 0.72979975 0.64396283 0.63964678
+ 0.63597019 0.63846514 0.64516728 0.61536112 0.620133   0.61735149
+ 0.61933267 0.62781271 0.44208324 0.46782132 0.45549028 0.33466478
+ 0.35136581 0.32750452 0.31932935 0.71190357 0.72033874 0.66935456
+ 0.66186129 0.61796052 0.6125927  0.63924313 0.63055738 0.60694513
+ 0.60248379 0.60247988 0.57642278 0.71604231 0.74252494 0.72801596
+ 0.73549346 0.72413276 0.72824065 0.61219811 0.61767475 0.59150039
+ 0.59899657 0.52793629 0.54601809 0.68782912 0.6924172  0.59882042
+ 0.58977416 0.62168105 0.60022768 0.57587407 0.5186617  0.52298212
+ 0.51480447 0.52761292 0.53844291 0.70671647 0.7315687  0.54662729
+ 0.56480669 0.61623798 0.60730737 0.60516747 0.60251758 0.49313201
+ 0.46085985 0.7367516  0.72087115 0.70669083 0.71328174 0.64846947
+ 0.66644564 0.58481132 0.58861527 0.11420714 0.10691142 0.63743881
+ 0.72548623 0.47046179 0.6203458  0.72580756 0.61322233 0.50648692
+ 0.60490107 0.45899977]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.9219</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>3.6813</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2.2363</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>2.3881</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2.3885</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.1}]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>[0.70928878 0.68721058 0.64458789 0.68056929 0.71572586 0.72728421
+ 0.68850855 0.69010454 0.66861282 0.69993069 0.66487434 0.63991256
+ 0.63991523 0.65870445 0.65187169 0.62931686 0.63102771 0.6142555
+ 0.63886614 0.65059412 0.50015349 0.51638931 0.41883275 0.35362799
+ 0.37341483 0.32137272 0.31564466 0.74742552 0.7223026  0.62781734
+ 0.6675886  0.61796411 0.62089422 0.64275443 0.64287305 0.62747958
+ 0.65688126 0.64388596 0.61150047 0.70167503 0.7389949  0.70669974
+ 0.69923888 0.71805926 0.72761553 0.64161308 0.63231395 0.63567939
+ 0.61907132 0.60893291 0.61726552 0.68630777 0.69866511 0.61171959
+ 0.61915721 0.63069631 0.61322432 0.6102527  0.57335887 0.51789442
+ 0.46314117 0.47889137 0.4551897  0.67554986 0.69347588 0.50202093
+ 0.50118568 0.61701576 0.60510548 0.62912622 0.60803635 0.48586383
+ 0.4546664  0.68271944 0.68939172 0.64744903 0.65926948 0.64465961
+ 0.64605049 0.55488421 0.58734116 0.09595164 0.1092977  0.63084022
+ 0.67547289 0.38340769 0.62855803 0.7149571  0.6168153  0.49549106
+ 0.62837855 0.486569  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>5.1824</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2.2545</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2.4052</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2.4053</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.01}]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>[0.70221096 0.68934747 0.73154385 0.7138202  0.71280834 0.73066104
+ 0.7014738  0.68803176 0.67952824 0.71246116 0.64811633 0.61085231
+ 0.61002698 0.61124209 0.64370458 0.63962265 0.64060224 0.62500811
+ 0.62286859 0.66149729 0.47088852 0.47666844 0.40395117 0.36609061
+ 0.37449027 0.32164083 0.31209229 0.72934268 0.71363379 0.63011591
+ 0.67058472 0.62426096 0.61756223 0.63363771 0.64084453 0.60870672
+ 0.65136944 0.6247764  0.60168475 0.73608324 0.74394378 0.73140559
+ 0.71051944 0.71990698 0.73317758 0.61419227 0.59977995 0.62530167
+ 0.60950367 0.5527073  0.56020007 0.731984   0.70978986 0.60443023
+ 0.59396392 0.62519418 0.60499654 0.58263738 0.54596489 0.566361
+ 0.50447691 0.48675183 0.474942   0.68657844 0.70375666 0.51702038
+ 0.53145023 0.58665455 0.57102819 0.63229761 0.61729043 0.48391422
+ 0.45624525 0.71823154 0.72376509 0.68983742 0.70273823 0.65712801
+ 0.67753302 0.54754701 0.58799106 0.10037207 0.10355348 0.60306191
+ 0.72898446 0.37483377 0.62891494 0.72031409 0.61245438 0.49847632
+ 0.63188992 0.4832935 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>5.6295</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2.3068</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2.4656</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2.4653</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.001}]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>[0.71437388 0.70474543 0.75817087 0.73001572 0.72708875 0.74391483
+ 0.70469721 0.68174184 0.69244666 0.71097326 0.64557902 0.60310465
+ 0.60373556 0.6027022  0.64827615 0.62184242 0.64091376 0.63461154
+ 0.6026803  0.66108815 0.46860346 0.47223334 0.40824505 0.36007821
+ 0.37610054 0.31831339 0.32209158 0.71409535 0.71707813 0.63937912
+ 0.67763142 0.62459933 0.60963154 0.63891972 0.63102096 0.60649763
+ 0.6397477  0.60931609 0.57807403 0.72991645 0.74188637 0.73576437
+ 0.7117457  0.72706081 0.72495936 0.59975245 0.6072158  0.61375051
+ 0.60197858 0.54654816 0.54799236 0.70902018 0.69386137 0.59976554
+ 0.58368972 0.61971679 0.60359656 0.59803279 0.54367127 0.56580098
+ 0.50549335 0.48814844 0.46202445 0.70275017 0.71583319 0.5241772
+ 0.5509051  0.59252504 0.59489218 0.64866726 0.62439157 0.48536261
+ 0.45484794 0.73159644 0.73574058 0.70289128 0.70023783 0.66565371
+ 0.67406172 0.56161672 0.58445744 0.10260039 0.09675216 0.60507046
+ 0.74232007 0.39086828 0.62557541 0.7231608  0.61066115 0.49766177
+ 0.63918597 0.464823  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>8.2612</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2.6272</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2.8146</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2.8155</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0001}]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>[0.73010121 0.68944716 0.74390276 0.7261592  0.71193976 0.73350733
+ 0.70415355 0.68419872 0.69379637 0.7240639  0.63347943 0.63215787
+ 0.62723884 0.63819537 0.63563568 0.61129326 0.63328518 0.62650514
+ 0.62007883 0.64837567 0.4520439  0.45569492 0.4617799  0.33814694
+ 0.35956229 0.35427117 0.32059126 0.71252692 0.73518744 0.65277135
+ 0.67235009 0.62181535 0.61333115 0.63781964 0.63372422 0.59734956
+ 0.62457913 0.60008709 0.56605385 0.72286847 0.74616015 0.72712243
+ 0.73902472 0.72401185 0.71945259 0.61475889 0.62333935 0.60367473
+ 0.60681436 0.52827717 0.5390246  0.68520113 0.69684437 0.58913035
+ 0.58324091 0.61410539 0.59941571 0.58604314 0.52930948 0.53862395
+ 0.52070615 0.52035828 0.52591315 0.70390528 0.72056523 0.54309282
+ 0.56124009 0.60191958 0.59008752 0.63307121 0.61805249 0.48373544
+ 0.45610135 0.72894429 0.7202851  0.69937645 0.70024668 0.66519244
+ 0.66916238 0.58641695 0.58638363 0.09700073 0.1012438  0.63194552
+ 0.73602814 0.45087528 0.62278567 0.72621187 0.61102812 0.51064458
+ 0.62549245 0.45899515]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.9941</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.9896</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>9.8245</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>3.2751</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>3.5331</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>3.5330</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[{'alpha': 1e-05}]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>[0.72641659 0.69342098 0.72887121 0.74528192 0.71053898 0.72551338
+ 0.69879474 0.69230397 0.68875298 0.73102703 0.6420004  0.64060165
+ 0.63377257 0.63283144 0.64223092 0.61604275 0.61975278 0.6206292
+ 0.61991751 0.62581783 0.4413732  0.45486053 0.45565491 0.33885498
+ 0.35623588 0.33619097 0.32054442 0.70848444 0.72562684 0.66156056
+ 0.66686834 0.61749954 0.61427094 0.63690135 0.63436964 0.60128515
+ 0.61468416 0.60329337 0.5772466  0.71107847 0.7454877  0.72853419
+ 0.7329304  0.72228576 0.7304224  0.61564699 0.61697156 0.59483473
+ 0.60241412 0.52734108 0.54586609 0.69079229 0.69885481 0.5959507
+ 0.58624747 0.61847775 0.59948073 0.57578908 0.52220898 0.5209067
+ 0.51311577 0.53080574 0.53670326 0.70527713 0.72919039 0.54843243
+ 0.56724015 0.61499614 0.60372261 0.61220482 0.60499986 0.49053329
+ 0.45955686 0.73608807 0.71800204 0.70608139 0.71281063 0.64976571
+ 0.6677023  0.58720564 0.5893943  0.10903768 0.10490131 0.63655026
+ 0.73069644 0.46495332 0.6210717  0.72519838 0.61227424 0.5087286
+ 0.60766684 0.4607692 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>8.2612</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2.6659</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2.8523</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2.8522</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0001}]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>[0.73010121 0.68944716 0.74390276 0.7261592  0.71193976 0.73350733
+ 0.70415355 0.68419872 0.69379637 0.7240639  0.63347943 0.63215787
+ 0.62723884 0.63819537 0.63563568 0.61129326 0.63328518 0.62650514
+ 0.62007883 0.64837567 0.4520439  0.45569492 0.4617799  0.33814694
+ 0.35956229 0.35427117 0.32059126 0.71252692 0.73518744 0.65277135
+ 0.67235009 0.62181535 0.61333115 0.63781964 0.63372422 0.59734956
+ 0.62457913 0.60008709 0.56605385 0.72286847 0.74616015 0.72712243
+ 0.73902472 0.72401185 0.71945259 0.61475889 0.62333935 0.60367473
+ 0.60681436 0.52827717 0.5390246  0.68520113 0.69684437 0.58913035
+ 0.58324091 0.61410539 0.59941571 0.58604314 0.52930948 0.53862395
+ 0.52070615 0.52035828 0.52591315 0.70390528 0.72056523 0.54309282
+ 0.56124009 0.60191958 0.59008752 0.63307121 0.61805249 0.48373544
+ 0.45610135 0.72894429 0.7202851  0.69937645 0.70024668 0.66519244
+ 0.66916238 0.58641695 0.58638363 0.09700073 0.1012438  0.63194552
+ 0.73602814 0.45087528 0.62278567 0.72621187 0.61102812 0.51064458
+ 0.62549245 0.45899515]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>5.6295</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2.3113</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2.4732</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2.4735</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.001}]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>[0.71437388 0.70474543 0.75817087 0.73001572 0.72708875 0.74391483
+ 0.70469721 0.68174184 0.69244666 0.71097326 0.64557902 0.60310465
+ 0.60373556 0.6027022  0.64827615 0.62184242 0.64091376 0.63461154
+ 0.6026803  0.66108815 0.46860346 0.47223334 0.40824505 0.36007821
+ 0.37610054 0.31831339 0.32209158 0.71409535 0.71707813 0.63937912
+ 0.67763142 0.62459933 0.60963154 0.63891972 0.63102096 0.60649763
+ 0.6397477  0.60931609 0.57807403 0.72991645 0.74188637 0.73576437
+ 0.7117457  0.72706081 0.72495936 0.59975245 0.6072158  0.61375051
+ 0.60197858 0.54654816 0.54799236 0.70902018 0.69386137 0.59976554
+ 0.58368972 0.61971679 0.60359656 0.59803279 0.54367127 0.56580098
+ 0.50549335 0.48814844 0.46202445 0.70275017 0.71583319 0.5241772
+ 0.5509051  0.59252504 0.59489218 0.64866726 0.62439157 0.48536261
+ 0.45484794 0.73159644 0.73574058 0.70289128 0.70023783 0.66565371
+ 0.67406172 0.56161672 0.58445744 0.10260039 0.09675216 0.60507046
+ 0.74232007 0.39086828 0.62557541 0.7231608  0.61066115 0.49766177
+ 0.63918597 0.464823  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>5.6295</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2.5388</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2.6978</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2.6975</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.001, 'normalize': True}]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>[0.71437388 0.70474543 0.75817087 0.73001572 0.72708875 0.74391483
+ 0.70469721 0.68174184 0.69244666 0.71097326 0.64557902 0.60310465
+ 0.60373556 0.6027022  0.64827615 0.62184242 0.64091376 0.63461154
+ 0.6026803  0.66108815 0.46860346 0.47223334 0.40824505 0.36007821
+ 0.37610054 0.31831339 0.32209158 0.71409535 0.71707813 0.63937912
+ 0.67763142 0.62459933 0.60963154 0.63891972 0.63102096 0.60649763
+ 0.6397477  0.60931609 0.57807403 0.72991645 0.74188637 0.73576437
+ 0.7117457  0.72706081 0.72495936 0.59975245 0.6072158  0.61375051
+ 0.60197858 0.54654816 0.54799236 0.70902018 0.69386137 0.59976554
+ 0.58368972 0.61971679 0.60359656 0.59803279 0.54367127 0.56580098
+ 0.50549335 0.48814844 0.46202445 0.70275017 0.71583319 0.5241772
+ 0.5509051  0.59252504 0.59489218 0.64866726 0.62439157 0.48536261
+ 0.45484794 0.73159644 0.73574058 0.70289128 0.70023783 0.66565371
+ 0.67406172 0.56161672 0.58445744 0.10260039 0.09675216 0.60507046
+ 0.74232007 0.39086828 0.62557541 0.7231608  0.61066115 0.49766177
+ 0.63918597 0.464823  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>5.7525</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2.3030</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2.4568</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2.4571</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.001, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>[0.73073858 0.69911901 0.73719916 0.7176773  0.71804637 0.73604775
+ 0.71434481 0.68506403 0.69759425 0.71398908 0.6571001  0.63710054
+ 0.61778899 0.61566648 0.65129713 0.62232019 0.6334387  0.62115584
+ 0.60839219 0.65620233 0.46259639 0.48042211 0.39798272 0.34793558
+ 0.37169247 0.32203483 0.32110166 0.70935506 0.69484547 0.6436935
+ 0.66279961 0.61662578 0.61102953 0.62165341 0.63135351 0.60020084
+ 0.64511296 0.62184254 0.57791477 0.73721513 0.73343213 0.72227863
+ 0.72596481 0.70988079 0.720884   0.62476004 0.60231421 0.61855706
+ 0.59688732 0.56273827 0.56979401 0.73395095 0.72532603 0.60716494
+ 0.59472676 0.61677269 0.60173743 0.58954052 0.51722858 0.53855704
+ 0.49308012 0.49649525 0.46609867 0.69921522 0.71870089 0.53808116
+ 0.54273458 0.62287879 0.60310816 0.63572647 0.62128535 0.45969448
+ 0.4520092  0.72377787 0.72922612 0.69602129 0.71141545 0.67056205
+ 0.68092546 0.54341623 0.57552384 0.0979045  0.09874991 0.61499647
+ 0.72514114 0.38035114 0.62452698 0.72214659 0.60735488 0.4950766
+ 0.63688643 0.4785203 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>7.7175</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2.4722</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2.6366</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2.6369</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0001, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>[0.72125477 0.70664701 0.74105134 0.71595446 0.70331753 0.74743612
+ 0.69670174 0.67045026 0.70097372 0.71747489 0.6218588  0.63754872
+ 0.62719125 0.64215364 0.6404252  0.61256218 0.64102398 0.62529021
+ 0.61578041 0.63941089 0.44808498 0.4551273  0.45901589 0.34340536
+ 0.36290964 0.34694566 0.32467821 0.71809745 0.71775601 0.64056614
+ 0.67319384 0.62187015 0.61277491 0.63693013 0.63634982 0.59778598
+ 0.63986996 0.60610865 0.56479953 0.72573647 0.74337893 0.72970327
+ 0.73246498 0.7257409  0.72073799 0.61794397 0.61574576 0.61094432
+ 0.61218699 0.52814492 0.54262385 0.70071506 0.69145313 0.5988986
+ 0.57979831 0.6089974  0.60167255 0.58500599 0.53610982 0.55014189
+ 0.51036936 0.50461571 0.50851853 0.70813869 0.72294994 0.54633299
+ 0.56038605 0.60664305 0.59309917 0.64259868 0.62293128 0.48693998
+ 0.45583211 0.72315083 0.72542914 0.69112296 0.69983137 0.67000293
+ 0.67362906 0.56969884 0.59314103 0.09508637 0.10215569 0.63130696
+ 0.7283345  0.43736458 0.62602606 0.72347561 0.60708303 0.50220181
+ 0.63469538 0.46100031]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>6.5732</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2.3178</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2.4718</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2.4726</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>C=400.25, gamma=25.023</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>[0.7326756  0.71382946 0.74485336 0.72052794 0.72304335 0.7310448
+ 0.72361984 0.69335058 0.71233251 0.71726765 0.63645419 0.63319632
+ 0.6176196  0.62583096 0.64960943 0.62258787 0.64552235 0.61796014
+ 0.6148389  0.64897431 0.45948921 0.46936351 0.42782285 0.34643251
+ 0.37733946 0.32931477 0.31681328 0.7086546  0.70604575 0.63435051
+ 0.66687945 0.62237701 0.61163089 0.62672805 0.63702632 0.60207852
+ 0.63901171 0.61064827 0.56722577 0.73798336 0.72546199 0.72382801
+ 0.7312733  0.72099674 0.71992459 0.61681496 0.60288349 0.61831933
+ 0.60499801 0.54146349 0.55218222 0.7105453  0.71213999 0.61011073
+ 0.58640006 0.60904233 0.60154372 0.59635392 0.52366344 0.55814937
+ 0.51177153 0.50658301 0.49781398 0.70221592 0.72171713 0.54655752
+ 0.54704414 0.60641318 0.59099404 0.64594117 0.62731786 0.47145444
+ 0.45631147 0.73418238 0.73160054 0.70501807 0.70319229 0.66736461
+ 0.68118393 0.54650845 0.5724835  0.09357199 0.10217823 0.62335989
+ 0.72760859 0.40563287 0.62777825 0.71997048 0.605863   0.5010367
+ 0.64169311 0.4774704 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.9816</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>7.3817</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>3.9944</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>4.1524</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>4.1525</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>[0.71824507 0.70810102 0.73293102 0.72686774 0.73455419 0.71530326
+ 0.70067657 0.70057626 0.69501299 0.72985122 0.64807961 0.64431257
+ 0.62445851 0.62353531 0.63757852 0.62017548 0.60734999 0.62521563
+ 0.60883832 0.65236059 0.44238356 0.40297447 0.45128298 0.33280777
+ 0.3193828  0.31812843 0.31437625 0.73167886 0.71895552 0.69116549
+ 0.66388617 0.61205059 0.60715608 0.64017276 0.63069688 0.60015847
+ 0.59449807 0.63015067 0.56307491 0.73121533 0.73100957 0.74072105
+ 0.72321019 0.70623172 0.71202639 0.61948334 0.60940817 0.60022374
+ 0.59104238 0.52879658 0.53325592 0.72902558 0.69844376 0.6056056
+ 0.58454253 0.60606371 0.61652229 0.57161937 0.51290334 0.51701567
+ 0.52017949 0.46298613 0.47139485 0.70808077 0.72771137 0.56238979
+ 0.55368433 0.6393899  0.61553636 0.60166768 0.59848246 0.53085193
+ 0.45600971 0.73298678 0.72120247 0.69448098 0.71052159 0.66447269
+ 0.67943879 0.5693321  0.58685119 0.12697753 0.11831834 0.62675706
+ 0.71053754 0.46958109 0.61665535 0.72508515 0.61414741 0.50661749
+ 0.60149836 0.46002267]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr.xlsx
+++ b/nirs_water_prediction/result/tmp_svr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15930,6 +15930,3732 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MSC_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.9951</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>4.3992</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>11.7853</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>12.1192</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>12.1198</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>[0.69670824 0.67459429 0.71833455 0.67576741 0.70479545 0.75776889
+ 0.70523861 0.70216484 0.65145966 0.71207928 0.63692205 0.64162578
+ 0.626139   0.61163059 0.6374645  0.62101473 0.61710086 0.62604015
+ 0.62913117 0.64060314 0.5015275  0.49086917 0.49164114 0.30706109
+ 0.40460193 0.34250417 0.32973747 0.67283701 0.71053578 0.66968455
+ 0.67238263 0.64193876 0.6364037  0.65031906 0.62411297 0.57448137
+ 0.62247423 0.61951807 0.52666324 0.73204853 0.72676484 0.71356632
+ 0.76503245 0.7561173  0.69319832 0.60282715 0.6190707  0.60831069
+ 0.5671956  0.51754138 0.58210319 0.68161369 0.68306987 0.6113445
+ 0.5974244  0.61437474 0.62396873 0.56013639 0.51897131 0.53960783
+ 0.50530113 0.48856387 0.48900265 0.64623588 0.65956387 0.5437459
+ 0.55239163 0.58013391 0.60249802 0.56524507 0.57296031 0.45699301
+ 0.46156347 0.71671966 0.71633415 0.68688099 0.66002068 0.68600597
+ 0.64765526 0.61221713 0.56267045 0.16351724 0.14607894 0.62918946
+ 0.72089273 0.46243048 0.63579013 0.73767452 0.61674493 0.50811531
+ 0.58870488 0.44405318]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SNV_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1.0560</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>[0.60010553 0.60040191 0.60010553 0.60010553 0.60010945 0.6001237
+ 0.6001083  0.60012185 0.60206641 0.60173291 0.60010605 0.60017987
+ 0.60020483 0.60012397 0.60103732 0.60011368 0.60114408 0.60021846
+ 0.60013153 0.60059262 0.59928678 0.60010556 0.59444217 0.60004623
+ 0.60008197 0.58449371 0.5976419  0.60045073 0.60040215 0.60010923
+ 0.61879363 0.6005713  0.60083674 0.60085861 0.60352287 0.59951345
+ 0.60010563 0.59899117 0.59511011 0.60178052 0.61133139 0.60166291
+ 0.60024765 0.63604061 0.64874745 0.61003299 0.60676988 0.59988089
+ 0.60083535 0.59535958 0.59993745 0.6277125  0.62268748 0.60011729
+ 0.59990128 0.6013826  0.60028811 0.59971861 0.59913714 0.59959517
+ 0.59777977 0.59998079 0.60010456 0.60486592 0.61485331 0.59823776
+ 0.59784302 0.60345393 0.60063342 0.6001059  0.600133   0.60010163
+ 0.58041394 0.64115539 0.61902589 0.61885075 0.60206994 0.60737697
+ 0.61403066 0.59902035 0.59712635 0.58896595 0.58242844 0.60128887
+ 0.60010553 0.56991206 0.60259974 0.66183854 0.60505389 0.56029565
+ 0.60030073 0.46002376]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DWT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>4.5603</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>[0.66403619 0.66485254 0.68761572 0.68056911 0.62871233 0.70234065
+ 0.68928983 0.70028817 0.68903359 0.6880181  0.63751068 0.63062869
+ 0.62430347 0.62671561 0.62742532 0.63337717 0.60797472 0.6258991
+ 0.61888805 0.61554591 0.48682815 0.47909577 0.5217355  0.39900798
+ 0.38341133 0.30851813 0.28734368 0.71517092 0.71508246 0.69330587
+ 0.65904174 0.59897761 0.62045992 0.62669869 0.60744147 0.59771994
+ 0.60849917 0.60277546 0.55754275 0.74574225 0.71574807 0.70722967
+ 0.66184883 0.73118028 0.73239641 0.62803316 0.61683901 0.60911213
+ 0.60527533 0.51933811 0.52549651 0.70558665 0.69918584 0.61629379
+ 0.59929475 0.61078706 0.61664434 0.5859009  0.52907453 0.51121805
+ 0.51657434 0.52093675 0.55126633 0.71463263 0.71902512 0.55052596
+ 0.55112888 0.64126274 0.63368388 0.61502089 0.62566687 0.52492443
+ 0.47462768 0.71603048 0.72826671 0.70411458 0.68532545 0.65195066
+ 0.64667234 0.58858702 0.59466732 0.11258679 0.10878593 0.63640038
+ 0.63961776 0.52883288 0.61515376 0.73168344 0.61650952 0.50892644
+ 0.61484081 0.46001648]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>D1_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1.3155</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1.2657</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1.2742</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>[0.87897885 0.69032536 0.6589552  0.66680606 0.86857843 0.65503917
+ 0.91001496 0.77625713 0.59910473 0.56457035 0.62335148 0.55361856
+ 0.59033015 0.6031068  0.6561272  0.60767236 0.59678001 0.59801157
+ 0.63316658 0.7386636  0.46214158 0.56165375 0.44260963 0.2621269
+ 0.39541692 0.46208397 0.20628799 0.54392312 0.46293912 0.50470016
+ 0.67555697 0.66044353 0.61471755 0.52752246 0.64244629 0.59597127
+ 0.45085805 0.66403732 0.55282369 0.75677974 0.63979726 0.61379387
+ 0.95382858 0.71810022 0.69113112 0.73835467 0.61988457 0.5132925
+ 0.3252995  0.60772556 0.69124773 0.78504593 0.6802421  0.55235881
+ 0.63268425 0.58214992 0.58531119 0.51984896 0.29173322 0.57869982
+ 0.49927104 0.59868332 0.42993714 0.69981015 0.57417961 0.55436942
+ 0.62844165 0.65410091 0.59828183 0.51765394 0.58465797 0.50166807
+ 0.54521608 0.73137175 0.52878629 0.6218322  0.71045948 0.59956376
+ 0.65163311 0.58893323 0.70699399 0.27033959 0.09504579 0.62392862
+ 0.68548845 0.42054841 0.6415406  0.73679338 0.57414944 0.49231076
+ 0.58085165 0.46207375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MA_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.9529</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>4.6079</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>[0.67882702 0.66303538 0.69636303 0.65881315 0.63012852 0.70300602
+ 0.69305583 0.6998195  0.68678757 0.68875996 0.66325832 0.63428491
+ 0.61528955 0.61518095 0.62778956 0.62437455 0.61629109 0.62988414
+ 0.61499105 0.63841441 0.48717427 0.47865757 0.51914244 0.39363279
+ 0.38316793 0.30787852 0.28143034 0.70993116 0.71908706 0.66947302
+ 0.66107151 0.5990774  0.62130591 0.62142212 0.60741711 0.58669797
+ 0.61955951 0.59494026 0.55021691 0.74570626 0.72218551 0.71604632
+ 0.67558096 0.73408898 0.73118414 0.62958837 0.61896756 0.60724608
+ 0.60665993 0.51015901 0.5195281  0.70477906 0.69575082 0.61373297
+ 0.60109834 0.61031119 0.61432156 0.58554031 0.53101989 0.51246491
+ 0.52032239 0.52740313 0.54357013 0.71345387 0.72277607 0.55016757
+ 0.54914243 0.6358367  0.63181198 0.6089913  0.60898808 0.52398003
+ 0.47148828 0.71555174 0.72567837 0.68288283 0.70192505 0.65467557
+ 0.66131094 0.58703737 0.59015452 0.10826278 0.10552648 0.63046723
+ 0.63872478 0.53775009 0.61016815 0.73444167 0.6155274  0.51497848
+ 0.60477278 0.46002141]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.9553</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>4.7291</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0.5691</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>[0.75360351 0.68859122 0.71183688 0.71726606 0.72072601 0.70009085
+ 0.69649474 0.7089179  0.68061208 0.72059139 0.62525137 0.64608446
+ 0.63355949 0.63649529 0.64798056 0.62716666 0.63092294 0.6078961
+ 0.62035026 0.61220411 0.47844094 0.46265159 0.42979368 0.33032616
+ 0.35485675 0.36964488 0.32246676 0.6808408  0.68612936 0.64296648
+ 0.66212581 0.57621672 0.59210593 0.62625353 0.59986126 0.61349
+ 0.58019845 0.58662158 0.58344688 0.73469137 0.75030556 0.73195311
+ 0.76672752 0.6848982  0.7156225  0.634677   0.59438015 0.56975928
+ 0.60078541 0.59076251 0.61294093 0.71154991 0.71318877 0.64622241
+ 0.63227398 0.64432362 0.60488278 0.62197644 0.5166366  0.53988487
+ 0.49283531 0.50743066 0.4914635  0.69553792 0.76059847 0.54104494
+ 0.57982832 0.64656292 0.63757213 0.60278091 0.61046636 0.46785817
+ 0.43525963 0.71064806 0.69325259 0.68232601 0.69096926 0.69569976
+ 0.67886668 0.5926696  0.6003911  0.08107167 0.11557016 0.62791914
+ 0.72043751 0.39363385 0.60585824 0.71908429 0.6080241  0.52326185
+ 0.60196487 0.48108691]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0.9909</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.9517</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>4.5514</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>[0.68285444 0.66237036 0.69617883 0.65801402 0.62993939 0.70324104
+ 0.69203578 0.70014987 0.68508996 0.68674157 0.66368707 0.63418829
+ 0.6137738  0.61306894 0.62718578 0.62102695 0.61308951 0.62950561
+ 0.61361315 0.63987508 0.48753118 0.47825278 0.51894111 0.39389462
+ 0.38460048 0.30533748 0.27836273 0.71334626 0.72565291 0.65362479
+ 0.66248606 0.59952086 0.62111879 0.61681021 0.6104932  0.58198438
+ 0.62359586 0.59227531 0.5494399  0.7473147  0.72378159 0.71718949
+ 0.67158038 0.73748064 0.73368313 0.63424564 0.62094261 0.6061525
+ 0.60751762 0.51336362 0.52017449 0.69996958 0.69375807 0.61851112
+ 0.602799   0.61064733 0.61411626 0.58616906 0.53170129 0.51192426
+ 0.52136429 0.53049187 0.54339478 0.71518786 0.72311284 0.54888766
+ 0.5474061  0.63496317 0.63306486 0.60568699 0.59821083 0.52464292
+ 0.47199231 0.71360783 0.72910242 0.67313324 0.70232039 0.6628868
+ 0.67058684 0.5861935  0.58723826 0.10651138 0.10631722 0.62959938
+ 0.63991616 0.53692051 0.61162603 0.73317198 0.6155557  0.51551492
+ 0.5942078  0.46002006]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>DT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0.9949</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.9667</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>5.4824</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>3.5895</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>3.7845</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>3.7847</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[{'index': [252, 13, 182, 46, 6, 134, 159, 184, 165, 199, 2, 171, 167, 179, 175, 203, 176, 169, 1, 170]}]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>[0.72614189 0.72332978 0.73330167 0.73390946 0.73368857 0.72093441
+ 0.68820924 0.70145894 0.69556532 0.75790758 0.67075595 0.64331761
+ 0.62412081 0.61469326 0.64702411 0.62894179 0.6126896  0.61700088
+ 0.60724965 0.67593692 0.44216807 0.39511833 0.49383798 0.34051049
+ 0.31443436 0.32396054 0.3085383  0.70933524 0.70989533 0.68357502
+ 0.66281591 0.61835427 0.61204939 0.65127974 0.63074224 0.61131453
+ 0.58307383 0.60409151 0.58852032 0.72486912 0.7288035  0.71686928
+ 0.79048502 0.7503419  0.727007   0.61310836 0.59631195 0.62833671
+ 0.57858073 0.54139402 0.53447305 0.6889788  0.67412565 0.60893015
+ 0.59053845 0.61039298 0.6138125  0.59220207 0.54045842 0.52475076
+ 0.49693628 0.516929   0.58363948 0.72199871 0.71817855 0.55362083
+ 0.5419469  0.63880147 0.64228256 0.59412692 0.58351688 0.52752209
+ 0.46468113 0.72275548 0.73113717 0.67418369 0.72835309 0.68659007
+ 0.724488   0.56122427 0.59096727 0.11895103 0.11221669 0.62860655
+ 0.68810042 0.46790069 0.61758259 0.73164406 0.61860289 0.5063058
+ 0.60095091 0.46001738]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MSC_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.9807</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.8848</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2.9462</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>4.2870</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>4.4631</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>4.4637</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>[0.6901017  0.69307001 0.80339877 0.67037121 0.729284   0.69354376
+ 0.72230113 0.68197783 0.66344454 0.69296798 0.64680612 0.61364056
+ 0.60122138 0.59793384 0.63682395 0.63893125 0.64092947 0.63271656
+ 0.60563592 0.62668084 0.55795158 0.52221067 0.41647918 0.21303406
+ 0.47986148 0.30579739 0.25940197 0.64295736 0.63876731 0.67366786
+ 0.6668141  0.59092232 0.53022429 0.62543475 0.59243345 0.64429666
+ 0.57474305 0.64494913 0.59823135 0.68471608 0.71177066 0.72447177
+ 0.63645099 0.6815498  0.67379846 0.61731725 0.59964947 0.60182169
+ 0.61000314 0.48148512 0.53855616 0.69821411 0.7000353  0.5815117
+ 0.57350928 0.60051378 0.56879625 0.57935267 0.55958611 0.48651389
+ 0.53420676 0.46352608 0.4370541  0.67966315 0.67332821 0.56582478
+ 0.56207491 0.59028245 0.63495936 0.59430406 0.58998746 0.52286906
+ 0.45157762 0.69353714 0.70383143 0.69446649 0.67860605 0.65811591
+ 0.67494093 0.60108509 0.5786612  0.156492   0.15116682 0.62095982
+ 0.6891479  0.41939864 0.61438051 0.6859649  0.61332806 0.52293458
+ 0.58255754 0.4463917 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SNV_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0.9725</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>[0.60006922 0.60193283 0.60006938 0.60016981 0.60014338 0.60012538
+ 0.6058922  0.60623008 0.6133646  0.62031373 0.60008892 0.60043323
+ 0.60084647 0.60086158 0.61170428 0.6004315  0.60541159 0.60443513
+ 0.6009722  0.60242278 0.59479957 0.60021823 0.57883181 0.59963105
+ 0.59525708 0.50839986 0.56113031 0.60107547 0.60770222 0.60104334
+ 0.64914638 0.60248617 0.6007588  0.60617757 0.60867453 0.60083114
+ 0.60008738 0.60245311 0.59019705 0.61930283 0.66732283 0.60297814
+ 0.60316673 0.6496345  0.70246064 0.61050832 0.61106985 0.60066486
+ 0.61165955 0.59109467 0.57807768 0.65314085 0.66075638 0.60301833
+ 0.5811143  0.60263411 0.60362205 0.59258105 0.58816437 0.58368298
+ 0.59411196 0.59707382 0.59973474 0.62505114 0.62758084 0.58631181
+ 0.59363595 0.61175951 0.60348447 0.60138699 0.59975235 0.59958391
+ 0.57261261 0.64358275 0.6516458  0.64544098 0.61265479 0.63297817
+ 0.61673539 0.59383884 0.59709002 0.58418124 0.57209693 0.61726503
+ 0.60016445 0.50894316 0.60738439 0.71816855 0.6121218  0.52418426
+ 0.60262992 0.46002387]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DWT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>4.9484</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>[0.67451908 0.68212692 0.68901386 0.68560492 0.63671507 0.70634663
+ 0.68457851 0.70114503 0.68712007 0.68545475 0.63663027 0.63657911
+ 0.63800421 0.64042993 0.6218288  0.63761856 0.60442041 0.62275846
+ 0.61124309 0.62513469 0.4591814  0.47077386 0.46207424 0.37100983
+ 0.3612132  0.32148566 0.28462396 0.72594532 0.73716009 0.68506064
+ 0.66769366 0.59135241 0.61682168 0.62847822 0.60930262 0.59257596
+ 0.59056277 0.63296256 0.54936208 0.74464143 0.73979719 0.68950354
+ 0.65544531 0.71648994 0.73707761 0.62286526 0.61714134 0.62004933
+ 0.60986832 0.48991292 0.51833735 0.69699299 0.69197871 0.60632564
+ 0.59941014 0.61003259 0.61440955 0.59608944 0.52287234 0.50924955
+ 0.52620137 0.4926188  0.54909888 0.7176893  0.71856791 0.5488856
+ 0.56067448 0.64267435 0.63899263 0.60331642 0.62122324 0.50145738
+ 0.47059364 0.71954477 0.73403246 0.69056286 0.70007247 0.65370086
+ 0.65743801 0.59308691 0.58589512 0.11772235 0.10323721 0.63550629
+ 0.66058813 0.54731912 0.61127856 0.72999771 0.61408561 0.49717647
+ 0.60555859 0.45997773]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>D1_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1.5808</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1.0426</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>[ 0.84415905  0.71964322  0.64470792  0.70075808  0.66081437  0.70274408
+  0.71901716  0.58485867  0.53313913  0.56225792  0.68664535  0.59822625
+  0.64151276  0.64011759  0.5965567   0.61651288  0.6484401   0.61561718
+  0.70939943  0.67093949  0.54579927  0.46022308  0.49129847  0.35535877
+  0.49347956  0.47297612  0.42905781  0.54920196  0.49758487  0.69479998
+  0.64534827  0.66217383  0.68781866  0.59663417  0.66195857  0.5422728
+  0.51798511  0.47217798  0.64401577  0.68588632  0.58096473  0.80587746
+  0.83548928  0.70444514  0.58991913  0.62818516  0.55326838  0.47667713
+  0.59710447  0.58880438  0.56431308  0.72341743  0.69666291  0.61671548
+  0.63217504  0.59629967  0.5815493   0.60740588  0.45314433  0.48364974
+  0.51022726  0.52588056  0.59617933  0.62550628  0.69257592  0.53391998
+  0.63829495  0.64520196  0.56934453  0.70498564  0.62795566  0.4738898
+  0.50350257  0.57620928  0.60625775  0.67097952  0.61384181  0.66372569
+  0.68652998  0.69683862  0.51158309  0.28025323 -0.04399553  0.63518465
+  0.6886481   0.45670579  0.62708874  0.74362741  0.58707248  0.54775987
+  0.61743651  0.46481203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MA_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.9578</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>4.8659</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>0.8359</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0.8364</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>[0.68695448 0.68020401 0.69320764 0.66619623 0.64266272 0.69318016
+ 0.69087225 0.70428298 0.68476891 0.69213126 0.65625356 0.63223162
+ 0.65217138 0.64710005 0.62386145 0.62166866 0.60256346 0.62361026
+ 0.61243505 0.63413776 0.45694268 0.47118663 0.46201003 0.3706093
+ 0.35925293 0.31681679 0.28325279 0.7153961  0.73594779 0.68896629
+ 0.66913967 0.59566547 0.62181234 0.62912532 0.60593323 0.58809632
+ 0.57207785 0.62943939 0.54623635 0.74365496 0.72716723 0.70151346
+ 0.65398012 0.70231307 0.73077202 0.6273517  0.62060683 0.61886587
+ 0.60436174 0.49023324 0.5221781  0.69920595 0.69662087 0.61239565
+ 0.59849795 0.60869908 0.61367747 0.59294264 0.54294058 0.51008363
+ 0.52902335 0.48843743 0.55156622 0.719992   0.71777921 0.54592025
+ 0.5516894  0.63963968 0.64795231 0.60068877 0.61409777 0.50607319
+ 0.46739265 0.72715058 0.72767492 0.67521828 0.69642587 0.65922397
+ 0.66189276 0.59164356 0.58655093 0.11113166 0.102166   0.64744789
+ 0.66110415 0.54071474 0.6072271  0.72871002 0.6120113  0.50189605
+ 0.59560393 0.4599787 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0.9166</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.9048</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>3.2418</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>[0.78434986 0.69103675 0.71325919 0.74982311 0.71230229 0.71286863
+ 0.71304193 0.65117058 0.66988767 0.62993762 0.65941759 0.63909885
+ 0.6231714  0.59628724 0.62613702 0.62906722 0.61543293 0.61091631
+ 0.60372105 0.63863894 0.51300483 0.51641094 0.37748252 0.26490515
+ 0.36569866 0.32695766 0.31403301 0.67020273 0.67200335 0.64255166
+ 0.64648146 0.66419752 0.62028373 0.55376758 0.60327581 0.5533827
+ 0.59127447 0.53486212 0.56154179 0.77022209 0.75729274 0.68014397
+ 0.75916188 0.69508614 0.69079422 0.58773623 0.63577796 0.62499216
+ 0.61772769 0.58160964 0.65157246 0.67819296 0.71110273 0.62718863
+ 0.62540756 0.58381291 0.59344038 0.60626566 0.45927692 0.54794706
+ 0.55690582 0.58982822 0.49943422 0.68423121 0.67764594 0.53540998
+ 0.59373494 0.63267871 0.58285179 0.66309314 0.59397398 0.48190347
+ 0.43397293 0.75060932 0.70162551 0.70397283 0.71680252 0.70773657
+ 0.68542879 0.57746508 0.56575376 0.10013873 0.12642726 0.61892807
+ 0.70787248 0.37705053 0.6266017  0.71880948 0.6101134  0.5223451
+ 0.62378832 0.44056962]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>4.5643</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>0.8444</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>[0.69691041 0.67983879 0.68659705 0.65153427 0.64471113 0.69404136
+ 0.68802796 0.70297663 0.67756182 0.68955915 0.65472031 0.62665056
+ 0.64870411 0.64582936 0.62244812 0.61514265 0.60150752 0.62197528
+ 0.60745485 0.64490324 0.45773924 0.47117585 0.46207686 0.37027646
+ 0.35899058 0.31565195 0.2828072  0.71916196 0.7404977  0.67644829
+ 0.6671375  0.59175836 0.62096559 0.62536763 0.6053355  0.57699067
+ 0.5863242  0.6343383  0.54325699 0.74424486 0.733607   0.71925628
+ 0.65461499 0.7151923  0.74178052 0.62586505 0.61847583 0.61727736
+ 0.60897554 0.47545146 0.52271626 0.69715636 0.69875506 0.61908787
+ 0.59989755 0.60947119 0.61360575 0.59010929 0.54211455 0.50927648
+ 0.52914296 0.48913944 0.55068376 0.72465859 0.7174364  0.54653173
+ 0.54829407 0.63381736 0.65666243 0.59411432 0.60369776 0.50878319
+ 0.46651334 0.72722437 0.73089822 0.66679821 0.69979964 0.65660442
+ 0.66664931 0.59229935 0.58439798 0.10974524 0.10505961 0.6501652
+ 0.64130892 0.54236201 0.60973692 0.72906562 0.61154014 0.50320005
+ 0.59266322 0.45998005]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>5.2903</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>4.1284</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>4.2301</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>4.2302</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>[0.66472218 0.75311758 0.73219005 0.72063816 0.7350531  0.71996629
+ 0.72142066 0.70152011 0.70642437 0.71634117 0.63099485 0.64930221
+ 0.64158577 0.63317127 0.64033668 0.61386092 0.61655896 0.62758647
+ 0.61667186 0.66514535 0.45041038 0.50734175 0.46858955 0.35794989
+ 0.25766427 0.36007904 0.30673627 0.70884088 0.68980527 0.66551369
+ 0.66972788 0.6161182  0.59610999 0.62751232 0.62406341 0.56630849
+ 0.61424365 0.59293997 0.57568047 0.70730333 0.74925561 0.68679077
+ 0.72695792 0.72791828 0.70542687 0.62437066 0.61759529 0.61137325
+ 0.61936331 0.5210104  0.53597499 0.68719576 0.69090974 0.60545307
+ 0.60439681 0.61406276 0.59865756 0.5518071  0.51558464 0.52675854
+ 0.51719449 0.49498809 0.56072266 0.72863541 0.71325902 0.53692188
+ 0.57793135 0.63244907 0.60949211 0.63929237 0.59811431 0.52823193
+ 0.46598368 0.7391097  0.74183607 0.68007861 0.7297269  0.67200204
+ 0.67804955 0.55408759 0.57866714 0.11739238 0.10826224 0.6270173
+ 0.68524166 0.47103018 0.6229399  0.72274153 0.61043643 0.52067696
+ 0.62289645 0.46001962]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.9565</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>4.7946</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>0.9566</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>1.0116</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>1.0117</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>[0.70084533 0.68116734 0.69288101 0.66263171 0.64581438 0.69336768
+ 0.68898862 0.70319565 0.68956126 0.69371025 0.65650062 0.63227553
+ 0.6549485  0.65479103 0.63006857 0.62258871 0.60873794 0.62219438
+ 0.60026633 0.64750104 0.45845036 0.47136094 0.46091183 0.37106347
+ 0.35768472 0.32054262 0.28526526 0.71980032 0.73942665 0.68435174
+ 0.66857566 0.58656518 0.61609235 0.6267456  0.60702738 0.57776728
+ 0.58147686 0.63202512 0.5457214  0.74343359 0.73501881 0.70825242
+ 0.65176486 0.71529567 0.73969815 0.62731783 0.616871   0.61752305
+ 0.60918134 0.47826377 0.52075068 0.69920085 0.69983537 0.61914538
+ 0.5988936  0.60830781 0.6140905  0.58366091 0.54085309 0.50992412
+ 0.52711757 0.49338501 0.55076319 0.72313415 0.71593882 0.54785102
+ 0.55214846 0.63702206 0.64973901 0.5938916  0.61767091 0.50721385
+ 0.46757345 0.72658615 0.73093326 0.67368714 0.69866128 0.65343102
+ 0.66316379 0.59136225 0.58628866 0.11073276 0.10289283 0.64066039
+ 0.66237889 0.54626111 0.60905159 0.7291291  0.61303503 0.50297187
+ 0.59735748 0.45997869]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NONE_YUMI_SVR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>YUMI</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>-0.4127</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1.3520</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2.2691</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2.2692</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>2.2698</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[{'index': [60, 157, 165, 174, 194, 208, 210, 235, 252, 259, 281, 289, 294, 334, 344, 358, 362, 369, 382, 408, 413, 434, 437, 439, 452, 454, 470, 487, 494, 505, 510, 526, 541, 543, 544, 551, 560, 573, 593, 604, 619, 641, 649, 651, 659, 667, 680, 695, 698, 699]}]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>[0.03687 0.03661 0.03716 0.03748 0.03693 0.03677 0.03446 0.03479 0.03822
+ 0.03212 0.03404 0.03226 0.03437 0.03494 0.03449 0.03497]</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>[0.0368928  0.03563349 0.03447513 0.03500215 0.03866492 0.03607375
+ 0.03591424 0.03581449 0.03763284 0.03278227 0.03259877 0.03221093
+ 0.03565749 0.03512462 0.03415811 0.03382831]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-0.2339</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>-0.0753</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>0.9644</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2.2894</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>2.3079</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>2.3082</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>[0.03687 0.03661 0.03716 0.03748 0.03693 0.03677 0.03446 0.03479 0.03822
+ 0.03212 0.03404 0.03226 0.03437 0.03494 0.03449 0.03497]</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>[0.03490152 0.03490784 0.03491035 0.03490144 0.03490314 0.03490471
+ 0.03490761 0.0349047  0.03492014 0.03488878 0.0348911  0.0348891
+ 0.0348992  0.03490873 0.03490438 0.03490141]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_YUMI_SVR</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>YUMI</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-0.2394</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>-0.0825</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[{'index': [8, 9, 36, 49, 74, 75, 96, 116, 124, 134, 144, 145, 160, 198, 220, 274, 276, 277, 295, 307, 308, 325, 329, 341, 344, 381, 399, 431, 480, 492, 512, 515, 527, 536, 547, 548, 560, 568, 576, 585, 609, 619, 621, 625, 644, 654, 665, 666, 672, 677]}]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>[0.03687 0.03661 0.03716 0.03748 0.03693 0.03677 0.03446 0.03479 0.03822
+ 0.03212 0.03404 0.03226 0.03437 0.03494 0.03449 0.03497]</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>[0.03490009 0.0349004  0.03490059 0.03490016 0.03490015 0.03490026
+ 0.0349003  0.03490024 0.03490104 0.03489929 0.03489945 0.03489938
+ 0.03489992 0.03490042 0.03490015 0.03490002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MSC_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-0.0128</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>-0.1175</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2.0395</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>2.0727</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>2.0724</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>[0.1027485  0.10272713 0.10164097 0.10246919 0.10295809 0.10244553
+ 0.10332765 0.10261346 0.10235233 0.10280368 0.10314257 0.10220128
+ 0.10243485 0.10174132 0.10230954 0.10281018]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SNV_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>[0.10424284 0.10399626 0.10136755 0.10257152 0.10563135 0.10341111
+ 0.10590443 0.10380151 0.10308109 0.10272728 0.1050753  0.10200472
+ 0.10090558 0.10058251 0.10253118 0.10511682]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DWT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>[0.10273693 0.10457062 0.1013179  0.10294362 0.10436203 0.10356838
+ 0.10539532 0.10352123 0.10387217 0.10623088 0.10318442 0.10099902
+ 0.10379355 0.10240271 0.10191774 0.10249661]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>D1_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>-0.1325</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>-0.3107</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>0.8735</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>[0.10215096 0.10215809 0.10214409 0.10215194 0.10215779 0.10215322
+ 0.10216236 0.10215468 0.10215516 0.10216675 0.1021532  0.10214517
+ 0.10215653 0.10214944 0.10215117 0.10214914]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MA_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>[0.10273733 0.10457008 0.10131725 0.10294387 0.10436144 0.10356807
+ 0.10539524 0.10352127 0.10387159 0.10622998 0.10318548 0.10100008
+ 0.10379342 0.10240157 0.10191816 0.10249796]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>-0.1302</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>-0.3101</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>[0.10215113 0.10216243 0.10213675 0.10215073 0.10216512 0.10215062
+ 0.10217218 0.10215848 0.10215608 0.10217346 0.10215453 0.10214051
+ 0.10215264 0.10214289 0.10215571 0.10215012]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>[0.10273925 0.10456814 0.10131567 0.10294399 0.10436439 0.10356937
+ 0.10539576 0.10352052 0.1038706  0.10622749 0.10318916 0.10100336
+ 0.1037914  0.1023975  0.10192016 0.1025004 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-0.0441</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>kernel=linear</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>[0.10263627 0.10391632 0.10121882 0.10283869 0.10387311 0.10340262
+ 0.104742   0.10316438 0.10340521 0.10571634 0.10310874 0.10141161
+ 0.10390033 0.10234184 0.10237745 0.10218776]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>MSC_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>-0.3274</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0.8680</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2.0023</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>2.0300</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>2.0295</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>[0.10326151 0.10180673 0.10129192 0.10144924 0.10374211 0.10239762
+ 0.10520232 0.1016671  0.10159737 0.10186437 0.10837665 0.10148103
+ 0.10019156 0.10140932 0.10131099 0.10373238]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SNV_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>-0.3834</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>[0.10351561 0.10186071 0.10127398 0.10145499 0.10405582 0.1025329
+ 0.10565378 0.10169736 0.10161652 0.1019582  0.10916011 0.10148252
+ 0.09999586 0.10140273 0.10129485 0.10403102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DWT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>-0.1543</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>[0.10248599 0.10361378 0.10229985 0.10246126 0.10389936 0.10277661
+ 0.10591536 0.10263585 0.10272685 0.10628856 0.10265441 0.10230708
+ 0.10268373 0.10230826 0.10225912 0.10236268]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>D1_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>1.0702</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>[0.10207416 0.10322457 0.10187316 0.10198829 0.10518902 0.10281188
+ 0.10586053 0.10217633 0.10208857 0.10264965 0.10257768 0.10130473
+ 0.10182011 0.10208691 0.10197312 0.1016725 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MA_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-0.1551</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>[0.10248523 0.10361343 0.10229926 0.10246078 0.10389703 0.10277609
+ 0.10591449 0.10263531 0.10272667 0.10629351 0.10265367 0.10230654
+ 0.10268415 0.10230772 0.10225855 0.10236216]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>1.1519</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>[0.1022242  0.10208339 0.10199704 0.10200377 0.1063121  0.10312698
+ 0.10571839 0.10230064 0.10203209 0.1014493  0.10239561 0.1013127
+ 0.102188   0.10200374 0.10145103 0.10175772]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-0.1543</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>[0.1024836  0.10361181 0.10229724 0.10245879 0.10389896 0.10277565
+ 0.10591212 0.10263245 0.10272467 0.10628613 0.10265119 0.10230441
+ 0.10268117 0.10230557 0.10225622 0.10235986]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1.1386</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>kernel=poly</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>[0.10409 0.10313 0.10292 0.10108 0.10747 0.10826 0.10535 0.10296 0.10315
+ 0.10146 0.10301 0.0995  0.10303 0.10597 0.09958 0.10509]</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>[0.10252593 0.10355992 0.10211474 0.10202314 0.10536932 0.10373105
+ 0.10670702 0.10194418 0.10215116 0.10081783 0.10255986 0.10150163
+ 0.10147783 0.10186492 0.10163236 0.10175805]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr.xlsx
+++ b/nirs_water_prediction/result/tmp_svr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:T186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19656,6 +19656,128 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0.9978</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.9957</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>8.7730</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>1.0585</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>4.8599</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>4.9029</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>4.9034</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>[74.69127001 70.99008624 70.8256852  71.62488841 72.9473152  72.009458
+ 68.7428136  70.55754002 69.95758269 70.27453758 62.06752334 63.29200064
+ 64.62066554 64.66256241 63.39752123 63.16972317 61.39009492 62.46119016
+ 61.35939229 62.99864952 44.90867958 44.2162215  40.11428673 31.74580637
+ 34.32397935 30.81755446 30.95082866 71.04720685 73.99773788 66.87707222
+ 66.24295745 59.94244098 60.79699748 63.55296007 63.98622767 60.52397376
+ 57.8311223  58.76381537 55.50342081 74.23230508 72.72671277 71.24551406
+ 69.15708275 71.42283908 72.86226499 62.07536572 61.57999074 60.12892802
+ 60.31585452 52.76618509 52.60344213 71.1321035  70.23852645 60.05953201
+ 58.93921773 61.13437481 61.72797831 56.2939832  53.3081193  50.66148197
+ 52.89698001 49.14941231 52.01402109 71.45668523 72.1858749  54.31586841
+ 56.07978746 63.11648486 60.95664959 62.4286087  61.04021702 49.52227588
+ 46.43106875 74.25350071 72.68832753 69.47805059 71.4105573  66.97732451
+ 68.06423494 58.0468784  59.61366142 10.19934962 10.02344332 63.7047429
+ 72.93145096 45.74908719 60.87639743 72.08928239 61.35939079 49.95581731
+ 60.82686649 45.99773883]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr.xlsx
+++ b/nirs_water_prediction/result/tmp_svr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T186"/>
+  <dimension ref="A1:T235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19778,6 +19778,5119 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0.9949</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.9908</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0.9816</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>7.3796</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>1.2750</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>3.9666</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>4.0743</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>4.0737</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>[74.95887624 68.2362885  74.1332664  72.17343874 71.04515689 71.32480114
+ 70.33031016 66.9762987  70.19587746 71.46280148 61.29695948 63.44485534
+ 61.81242028 63.34921595 62.91469349 62.88051393 64.4268432  62.58090976
+ 60.92915587 62.27694983 43.51942147 45.75036994 46.30112215 34.14203355
+ 36.77708454 34.89118384 29.92985225 70.33397584 72.47650484 66.11938128
+ 66.73101561 61.83556608 61.24294425 64.42790116 63.21367457 59.33232478
+ 61.26887053 60.41599503 56.40176811 70.42611436 74.16677594 74.15701737
+ 71.58116506 71.79735533 71.81995142 61.3530315  62.39743601 60.35033567
+ 62.28485147 53.56603049 55.42955054 69.45625177 70.04775389 57.96602741
+ 58.10162437 62.89502658 58.35842797 58.46036448 53.66717131 53.33860531
+ 51.24431162 50.58236793 51.49802809 68.69705961 73.62156903 52.57578828
+ 55.01155072 58.51709363 59.92118093 61.65562769 60.27358053 48.78352387
+ 46.429202   73.7244733  71.08913188 69.93283007 71.19474869 66.46277821
+ 67.88508668 57.64600059 58.47082463  9.47208299 10.98528716 63.10208042
+ 73.30551103 44.87096715 62.10816298 72.56666633 61.11687597 50.68626576
+ 60.53265046 45.99723227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.9906</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.9814</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>7.6910</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>1.2822</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>1.6353</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>1.6795</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>[72.44269865 70.19147746 74.59415981 72.62964701 71.06866741 74.35928194
+ 70.41796334 67.6500918  69.39756905 71.17808013 63.37392644 62.76270415
+ 61.67859455 63.07951295 64.00747776 61.44311928 63.90595614 62.04348505
+ 60.5923617  64.82015374 45.66155384 45.49484654 43.93525851 35.14527433
+ 37.83688298 33.87345476 31.5868288  71.08911488 72.97830758 64.39988144
+ 66.88207797 61.5497491  60.33022901 63.56681835 63.89903555 59.30363995
+ 63.5469903  60.0733824  57.06502704 72.0458186  73.97251584 73.46427762
+ 73.76903078 72.50156771 72.3693989  61.39035329 61.80818031 61.09548487
+ 61.39973365 52.86854733 54.42777021 69.52274083 70.20098053 59.60502002
+ 58.31291873 61.78886818 59.53359    57.57054954 52.69828827 54.64324622
+ 51.67104802 51.21556201 51.45971971 70.38815573 72.98941104 54.11473579
+ 55.93477476 60.03737826 59.17122881 63.49062852 61.80169132 47.92209868
+ 45.69968964 72.85861039 71.99832018 70.29435755 70.48905906 66.21439428
+ 67.68614453 56.65649234 58.55753474  9.74094922 10.28397557 62.8520994
+ 73.65721151 42.73681818 62.14673156 72.67709291 60.97494352 50.59276919
+ 63.14428172 46.19737071]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>DT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.9913</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0.9827</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>7.6096</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>1.0986</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>1.0985</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>[72.65168461 69.99415489 74.31934444 71.90774395 70.57318931 73.75880446
+ 69.81559561 67.99347766 68.94170337 71.47850537 63.11492234 63.2087695
+ 62.30473772 62.54540541 64.44907632 60.78160227 63.8501397  62.32979537
+ 61.33978927 65.11963297 45.03318233 45.34282191 43.90516516 35.29402265
+ 37.41613116 34.00370232 31.34662603 70.95334839 71.88899474 64.87681638
+ 67.0139704  62.02035427 60.25847103 63.37503553 64.04214671 59.65307031
+ 63.63447352 60.02838322 57.60658468 72.75395051 74.11086957 72.57931198
+ 73.85813239 72.11198844 71.43520192 61.95116858 61.52027094 61.50188812
+ 61.35672993 52.66903235 54.38771295 70.22202077 70.08908539 60.03226184
+ 58.78555983 61.23179104 59.58731756 57.76711138 53.16906884 54.50461688
+ 51.42899889 51.37971235 51.55974354 70.60196508 72.52750313 53.67049217
+ 55.95714338 60.092387   58.69660229 63.96639558 61.82678359 47.9085007
+ 45.22868393 72.52843103 71.55031391 70.10670129 70.52387789 65.87862145
+ 67.59387301 56.17256501 59.30682165  9.82676788 10.19964048 62.63323737
+ 73.25405611 42.15187583 62.22366552 72.62326453 60.75272826 50.47675194
+ 63.45092037 46.06799571]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.9794</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>7.2891</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>1.3224</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>0.7738</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>0.8591</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>0.8596</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>[72.20809399 70.31881462 74.55838254 72.53475062 70.81311044 74.16792001
+ 69.55667851 67.65863734 69.0061641  70.50036785 63.44980059 63.06692332
+ 62.16225009 62.48741324 64.64553871 60.91678775 63.95634622 62.65419731
+ 60.63619927 65.30710269 45.40932365 45.27113659 43.47022746 35.15959885
+ 38.09630944 34.01579987 31.57428227 70.97247169 71.97340953 64.35260927
+ 67.08389477 62.18464344 60.33821637 63.73215464 64.11472782 59.90567447
+ 63.70493257 60.38266962 57.47226194 72.87360223 74.00034497 72.83914333
+ 73.85799186 72.29991201 71.76449463 61.6609658  61.53676625 61.56552619
+ 61.53962411 52.22481794 54.50911666 70.07195302 69.86017123 60.11334304
+ 58.63010966 61.27828641 59.66254899 58.12065291 52.97410232 54.77020047
+ 51.58746902 51.63751898 51.63329803 70.76336248 72.71869468 53.94983269
+ 55.99662182 60.16740073 59.12762852 64.21014078 62.32837075 47.63301947
+ 45.28156494 72.38380693 71.60905863 70.3186898  70.54184301 65.9089108
+ 67.31395814 55.98244535 59.04960925  9.83348251 10.09630544 62.77633775
+ 73.78535758 42.23388421 62.39861205 72.62997379 60.88221183 50.37615811
+ 63.74198827 46.79734774]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DT_CARS_SVR</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CARS</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0.9837</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.9624</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>5.1541</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>1.8075</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>0.3607</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>[{'index': [3, 5, 8, 14, 26, 31, 41, 43, 48, 49, 53, 59, 65, 72, 80, 81, 85, 87, 90, 110, 111, 116, 120, 122, 126, 127, 128, 153, 158, 175, 180, 184, 197, 198, 202, 205, 206, 214, 227, 240, 241, 255]}]</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>[72.59342899 70.56636307 74.88560409 72.90323939 72.05394241 72.64716633
+ 70.73617117 69.25173395 70.17430913 71.56524801 63.51304765 60.37951841
+ 60.72182022 60.52640906 63.97382551 61.92202451 65.27063425 63.42613791
+ 62.10215889 65.70440243 46.66113448 46.53452669 40.83237059 36.21719784
+ 38.20116747 31.32508631 32.41724658 70.75437018 71.81013072 63.15610625
+ 66.89490879 61.51231782 60.11985056 63.45103431 64.00416886 60.94602006
+ 63.96119327 61.50699223 58.88120437 72.8542635  73.59831143 72.82646653
+ 72.65385453 72.90848663 72.0365193  62.0572087  60.66680217 61.8336271
+ 61.23663091 54.28673538 55.62052095 69.40852898 69.23719987 61.7011839
+ 58.75436106 62.24366616 60.56597671 60.63610888 54.47894109 56.96363243
+ 51.67709194 48.84157569 46.35157427 68.88369922 71.6138303  52.92137842
+ 54.41058324 57.94230288 57.64059667 64.79331944 63.7481193  48.56332749
+ 46.16345448 71.88985863 70.80134656 69.76264688 68.79378691 66.62362047
+ 68.94964949 54.64570056 57.9612139  10.04684468 10.20460933 60.61653647
+ 73.15514861 38.51321215 61.9195912  72.25878358 61.3049739  50.26092231
+ 64.14598658 49.07289241]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SG_CARS_SVR</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CARS</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.9837</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.9676</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.9623</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>5.1534</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>1.7917</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>[{'index': [3, 5, 8, 14, 26, 31, 41, 43, 48, 49, 53, 59, 65, 72, 80, 81, 85, 87, 90, 110, 111, 116, 120, 122, 126, 127, 128, 153, 158, 175, 180, 184, 197, 198, 202, 205, 206, 214, 227, 240, 241, 255]}]</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>[72.33589409 70.27687259 74.62742516 72.76466347 71.97793631 72.52059894
+ 70.74538679 69.01630816 69.75567305 71.47725454 63.78525545 60.27653452
+ 60.78249985 60.37881339 64.25637809 61.96437333 65.29922665 63.47773453
+ 62.05981131 65.814587   46.68833551 46.58874696 40.67118066 36.27947614
+ 38.21097474 31.2096962  32.27296829 70.87955373 71.90161212 63.14081014
+ 66.88740606 61.48077406 60.28632215 63.58892506 63.86580233 60.87523915
+ 63.8179037  61.27696533 58.63868841 73.08906242 73.76565329 72.7909783
+ 72.57791996 72.71687166 72.08730843 61.94377752 60.66767725 61.92394437
+ 61.18878267 54.15285758 55.63792831 69.49737772 69.36648059 61.42261955
+ 58.63340192 62.44034045 60.73961918 60.58811379 54.29740745 56.83583321
+ 51.36216947 48.78029509 46.34565314 68.88401991 71.5734281  52.58828242
+ 54.22779243 57.92320076 57.62241447 64.88076413 63.65341441 48.4642182
+ 45.77958775 71.67202002 70.80216914 69.76100167 68.75899476 66.70045894
+ 68.93124448 54.64013307 57.978977    9.93044554 10.1333965  60.58025242
+ 73.04585733 38.40004266 62.00094873 72.24206934 61.34511362 50.20147708
+ 64.16577647 48.65854288]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DT_SPA_SVR</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>5.4702</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>1.7587</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>[{'index': [219, 6, 195, 134, 46, 3, 182, 158, 179, 254, 191, 188, 161, 84, 165, 2, 166, 171, 176, 193, 167, 174, 172, 196, 163, 177, 198, 175, 189, 159, 242, 180, 168]}]</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>[70.96470493 68.46419265 74.07349357 72.61409383 71.30574665 73.30033323
+ 69.52531804 68.49364474 70.68142738 70.86879129 65.25520221 61.57316831
+ 62.2351579  61.75827113 66.33787604 61.61906771 64.96803396 62.68039343
+ 61.08259463 65.34946517 43.84271388 45.2372205  38.98240781 35.26044747
+ 37.70440386 31.65144199 32.11167336 69.35868908 71.08645655 63.99122039
+ 66.42822119 60.18929806 60.26089798 62.48863216 62.90332359 59.8540572
+ 62.62607239 61.11400551 59.37161215 71.09973161 74.29249067 72.10183999
+ 73.98518547 70.3388349  72.7675748  63.37309571 61.50542288 62.05973396
+ 60.47268858 56.6422956  58.42787763 71.45767817 71.81465743 61.4245469
+ 60.53698038 62.44751489 59.84382861 59.45624382 53.78107829 53.14244554
+ 50.34895765 48.71750057 46.41210363 69.33349972 72.31049065 51.93876979
+ 54.9905993  60.57939308 60.87039435 64.25471384 62.48565042 46.36651501
+ 45.25502359 71.92748975 70.63234856 69.79245427 70.23437156 68.1651707
+ 69.44126469 54.41831752 58.78491828  9.78910725 10.14000616 61.85963694
+ 72.83771276 38.34105034 61.34468213 72.56261456 61.19350234 49.27616923
+ 63.58311995 48.25517068]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SG_SPA_SVR</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.9664</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>5.4571</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>1.7636</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>[{'index': [219, 6, 195, 134, 46, 3, 182, 158, 179, 254, 191, 188, 161, 84, 165, 2, 166, 171, 176, 193, 167, 174, 172, 196, 163, 177, 198, 175, 189, 159, 242, 180, 168]}]</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>C=973.66, gamma=3.7183, epsilo=0.002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>[70.88867115 68.35072744 74.23435488 72.73526394 71.15799317 73.31362055
+ 69.46961294 68.42385966 70.52982017 70.80593589 65.29507712 61.68387745
+ 62.38246025 61.69086672 66.29600374 61.61160266 65.03974172 62.87523097
+ 61.12837927 65.52991518 43.85333345 45.28132657 38.99002628 35.30407436
+ 37.80570645 31.83823116 32.23379849 69.33670184 70.94588175 64.01919196
+ 66.43153203 60.30695696 60.35279917 62.53642414 62.92240557 59.85263457
+ 62.68998827 61.14257877 59.3851905  71.04561411 74.16593083 72.14600525
+ 73.9550958  70.39273337 72.79016062 63.37332922 61.4474381  62.0528995
+ 60.48902292 56.75097225 58.40491232 71.46239013 71.6996822  61.47086167
+ 60.53251518 62.45494927 59.915642   59.40090287 53.69781488 53.13742269
+ 50.33691434 48.74723328 46.42713852 69.3432693  72.26625287 51.91337965
+ 54.93094972 60.5884971  60.85455905 64.33501529 62.53777859 46.4540413
+ 45.34141765 71.97432585 70.6228144  69.89895801 70.39276583 68.01276194
+ 69.46098742 54.48540339 58.84629563  9.81121979 10.10198296 61.9490292
+ 72.87013694 38.42258768 61.41933036 72.5718804  61.2240887  49.27356973
+ 63.642446   48.28642259]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DWT_SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>DWT+SG</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.7806</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>0.6094</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>1.6000</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>5.3270</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>2.8622</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>2.9154</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>2.9162</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>[68.07677511007581,66.1326399366945,66.25700109677804,66.69850027031315,68.61563814205921,67.76301240732346,69.71438718816019,69.51516942238386,67.20332085807917,67.51573233660035,67.87277260245124,68.1220906587595,66.27981984941307,66.34090438017728,66.42299508727547,66.49829526418513,66.76232639100903,65.60582273655149,67.62314929504842,67.52086062123276,50.205883553372814,50.022755860277314,49.45391804004329,42.808412603003454,43.203606986973625,45.56582178294923,44.807290561764134,67.88187487844976,67.08513746295677,62.178588513717735,59.13673935992458,56.783170267114514,55.66410692389569,60.39866286100279,60.68727474057802,63.477687345546485,62.18702528566116,60.05063117459838,61.14812187476046,68.20482317602912,67.24407598028995,67.23364914235643,67.38963670390415,65.73149215869671,66.88195596327688,61.57684659520955,59.23805622602121,62.998774266377225,60.52953236596631,63.603864102373755,62.76350751793819,67.92974676892413,69.08348756384177,62.46526766515628,64.18922915779255,54.9273161013349,54.37581862881015,64.8022855907907,60.644409935116435,50.763612731256636,51.48281264110011,57.32778533885256,57.2264948234851,67.60635111848913,68.19562508825877,56.955059650688725,57.289881904875294,64.26271362025373,64.56714237959436,63.627085437287974,62.032746367042975,52.98635632099393,54.85832392243296,65.89239781998451,67.7393309106591,65.28541602557948,66.10772349693019,59.845695023948664,60.639275600719074,60.14611985884165,61.141663372403,48.05717370040691,49.457207454603676,66.94815835632231,66.20147406846586,45.958085216745054,58.26354219148838,68.3889396269501,55.12721303119765,56.7493721662485,62.39291080650246,54.706883730480165]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0.7685</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.7860</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>1.6177</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>5.1629</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>2.8445</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>2.8446</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>2.8451</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>[69.60593395874832,67.5119444684244,66.83948548869549,67.30465897067027,68.80854023017346,68.31431704930621,69.86540389310419,69.55564261096642,68.1219645326621,68.4313060719454,67.34311795897695,67.24404449227704,65.58684570917424,65.65376946780653,65.9604769480102,65.79187093596407,66.1288545200523,65.21639966100342,66.72968961912336,67.02674617276354,50.161483906303694,49.94241813875047,49.51596314768602,42.75502871388704,43.145801730771815,45.5775382231216,44.810088015326755,68.24460229215809,67.31238108551483,62.17380744640641,59.095912960372246,56.74574497437672,55.614734107990685,60.41773372169526,60.73800663855948,63.689436852828216,62.37419689203656,60.084520430872715,61.35320654941145,69.01360568088919,67.43714194665758,67.83957560935112,67.9718911059672,65.97584304072295,67.11515741884014,61.57117019317735,59.18613199164486,63.31207877273373,60.60167181105765,63.834282741086895,62.93522912234048,68.04277983446387,69.18063209822361,62.59171915107758,64.38945643417948,54.833082057323374,54.28616801414117,65.31057668350374,60.974022585157456,50.68346744453036,51.440163117048996,57.53087771047046,57.57618813542111,67.76311573322285,68.30716951569492,57.0745181831733,57.35632154783705,64.30320887932992,64.64604469186023,63.7829934837652,62.11360435865234,52.97084545768084,54.89522017392231,66.0115071552463,67.95661151193181,65.39003366988514,66.18789784094328,59.79818560447409,60.58936817839596,60.13007277078582,61.120938984491566,47.990926688143645,49.3136114789477,66.17983767091197,66.6315198595793,45.9244596715253,58.24131298766726,68.9618719514766,55.03687175894221,56.83063396790969,62.46007962950596,54.7531433497625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>1.2381</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>7.4957</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>0.7101</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>0.8855</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>[60.52630008440724,61.8560073195637,61.689558741086145,61.78037862884721,59.94834107246804,61.142487849791046,59.970814037053685,59.55830656135761,60.8805402838367,61.160881077964575,61.93569199448048,60.349007761345376,60.873772174835516,60.8619385507803,62.123011030052844,61.140277112761126,62.020315952716814,62.17880831739669,61.198310193038196,62.082939708435816,60.42749905803471,60.95962754674169,57.31148463000416,57.00506189668355,58.01208501084093,54.84937527877359,54.41276517330199,62.756742649259095,63.30979370767497,62.68673716729596,63.61909083101049,63.2679953710539,63.27290995311761,62.322226767874696,62.331846845500436,61.71609139363432,62.381686053412054,62.160725963627115,61.27661376053394,62.71555738379086,63.024176242849606,62.76314253527499,62.555142483288314,62.88407052759574,63.068507874140224,62.799590403993534,62.82040985328555,61.90658339807986,62.36656060844251,61.05781180473756,61.23056635777527,63.142959818814,63.104996013701935,62.462815694067864,62.168618142942485,63.44653399127837,63.16577007201266,61.153239590485704,60.49361272857595,61.22986665600337,59.80496471405145,59.286209298032674,58.511094580656504,62.533994774722615,62.84207223208264,60.51921715842603,60.971458080214816,62.02889667945401,61.58307058176163,62.24130714508709,62.10083811844971,59.673759854786674,59.21884045367658,63.03141184379516,63.04594581366757,62.92389840942937,62.892347242209645,63.46200774160778,63.546038665827666,61.44076677323774,61.61176127844553,43.79189102055639,43.61309726072391,60.81966715142379,61.183985083620236,56.94238784493531,63.13125627169745,62.73012817751748,63.204546615265635,59.830804296873616,62.29577082401358,59.80803384262569]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>1.2115</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>7.5633</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>0.8468</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>0.8472</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>[60.543023968159865,61.84026371762793,61.71795689613411,61.79570079023679,60.01623596163744,61.173444980405925,60.03292113629982,59.63093830223789,60.91164895705701,61.185794920304545,61.96542430771864,60.43258587668509,60.93530124039647,60.922526297858326,62.145929603704246,61.20347544127924,62.04883020297339,62.20206007735894,61.24864377992688,62.102826792921334,60.45038017213601,60.96932794325032,57.433001634209745,57.13377675048037,58.097879717613075,55.12875417955957,54.72837832687188,62.74080883378083,63.27706072302781,62.682419617119024,63.582147786333906,63.234905343072576,63.23593667720324,62.312397999644155,62.32200563478147,61.72106386953969,62.367709222629685,62.15229037970733,61.28859518329835,62.69707445526783,62.99920927784061,62.74043849736267,62.53621630205816,62.857923937846536,63.037568888827266,62.776762392574675,62.79571699537774,61.90849667498861,62.35328501284951,61.07401744403115,61.24263655963376,63.13116848886051,63.092598448673705,62.44809540434203,62.160397071515746,63.389453434948614,63.117888950828686,61.169156616335925,60.52010645007148,61.240411184863305,59.851567600178036,59.349770289121224,58.60074499165846,62.52939980795043,62.829878443961775,60.56216586769659,61.00391818551226,62.027084863048,61.592523040503025,62.23822358142382,62.098279806531295,59.71971956982645,59.27578180903242,63.0159638054647,63.03033175608381,62.913407456639014,62.88479633722821,63.428677051260145,63.50918803736629,61.45334034774539,61.619587522077964,46.38575307508842,46.282130792144414,60.883494280632725,61.22604491885783,57.07822935823775,63.104669179449346,62.709643537174216,63.157604274070906,59.876209851527825,62.28881084870812,59.849470278282816]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>1.6035</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>5.2938</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>0.7574</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>0.7576</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>[68.3906311294994,66.41987048597701,66.41005129643365,66.83907719321509,68.66328756802926,67.90113086447991,69.75113347456663,69.53078858702125,67.40724805881423,67.71069552381631,67.79745647874113,67.96755205821997,66.17799296407348,66.23676920027859,66.36400565715843,66.40736456581236,66.6701819668729,65.5717669801387,67.47299673737436,67.44999507411303,50.2098543370914,50.02378352627672,49.46509773541915,42.82994630249279,43.22344075687209,45.56167684511765,44.80025672611393,67.95017100791331,67.13289373504298,62.176236910306784,59.13756186959716,56.78907867566506,55.66922492381628,60.408329458208264,60.70582378649567,63.51787198136859,62.238089141386666,60.06110282413122,61.182675815267395,68.38992267205349,67.28307134060557,67.36385601411011,67.50247439157614,65.780330986168,66.92719227994266,61.57873934308275,59.23674745892272,63.06050797306804,60.54971233536864,63.630365329150834,62.77766417257021,67.95616016454078,69.10651672110146,62.482361283899436,64.2170001311766,54.93763128415176,54.387355951500055,64.89575789607922,60.69871104763012,50.773686289090556,51.4928695761875,57.37159300658495,57.303551869129976,67.63262567266574,68.21168995378036,56.97419914345718,57.30063116349526,64.26409695350951,64.56861814625438,63.66506101240387,62.05530054457812,52.99176662550096,54.86592550454503,65.91933987356292,67.78616207084485,65.32077731930399,66.13079115069222,59.8448949372149,60.639217365971454,60.13216875403341,61.123511908069325,48.06702086644091,49.45701670566511,66.8281696153152,66.31966974565997,45.95594249494168,58.26845280294518,68.5091843547562,55.13578683011798,56.774124850226904,62.41392958850779,54.71645031563377]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>1.2232</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>7.1058</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>0.7126</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>0.7663</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>0.7664</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>[59.75492567367512,59.972757929034195,60.69761149227006,60.77052068566672,58.71688028966188,59.97831676886132,59.79506841195407,58.29913690599519,60.404190351646584,61.11178530429318,62.97154327679179,61.35082487515865,60.8938256448381,61.01303403528854,62.51060183883874,61.24457479403675,62.74021022082885,62.22597781932038,62.108218074058875,63.33933847606283,57.38826044520075,58.23221111458939,55.23313487717358,53.33390056788778,54.20375403643357,53.69586324604356,53.369693813686396,63.179022559838714,63.57333797988523,62.91378116428998,63.39749269343389,61.83008487564548,62.048072824996865,61.64941043812849,61.543451619209016,61.40322718446956,61.24931882285116,61.24090299216877,60.48411950003001,62.697122282404635,64.19198103492492,62.46660093342454,62.70512526604111,62.660554489910886,63.32954080829549,62.756628578849714,62.40637381436027,60.994055688928604,61.446050607621935,61.3213626954604,61.261045102343246,64.667591098439,64.83706169462414,61.84842979015377,61.88681558998009,62.08902685124994,61.609187255465415,60.93577924503231,59.1052851128712,58.79261102857153,58.150402651545576,58.874977747036205,57.88620760143727,64.02453662731597,64.5387937577714,59.31793951446693,59.94799128498548,62.47210334540139,62.338322330319265,62.02618708148363,61.585207429432955,58.06181121574706,57.979821969278014,63.72944567915274,64.06401512850854,63.35277928028891,63.689295219175754,64.12412572080827,64.18799522852048,61.4328789491097,61.68725466366762,51.3257405959776,51.70831989462893,61.3383094125775,59.75625179064893,54.5325376165771,62.074465317892425,63.01948638477056,61.82056113513426,59.22863857371776,62.11868326162471,58.293016804049714]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>D2_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>1.0804</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>7.7161</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>0.7646</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>[62.5603792524056,61.67253496555651,62.14631500480635,62.31169998852255,62.21116367656492,62.50354722886518,62.479638785572305,62.141492577621385,62.327689593880564,62.81828242545506,63.26868273562467,62.93809464007005,62.54843902983135,62.82669616361897,63.1478667710139,62.70012246422174,63.17329287002318,62.84445442548484,62.741203797423395,63.20193252961205,60.204664579326334,60.68523845585106,59.642409423985455,58.026764119857035,58.572849911161946,59.109037788120794,59.00318132721879,62.80929584134625,62.84298058239927,62.66132964359892,62.69396124661654,61.738805558496594,61.984650471031486,61.968982842156734,61.65065070084368,61.87775044669802,61.32729172141036,61.64386319034502,61.5462735029614,62.63668376894925,63.13158050641829,62.37073824216973,63.035260389095995,62.42475511720633,62.794349062123025,62.28897570975185,62.01161108566761,61.84603252201555,61.80871038878053,61.877074284789934,61.86012030188518,63.44352165816672,63.41721729439001,62.30366369113299,62.1453049652709,61.52160109207515,61.309122190348994,61.938630769155964,61.30923571965441,60.35059315616612,60.281446739414505,60.950374990140794,60.53740706115221,63.084641959595174,63.2168709463642,61.35475432222029,61.489282306736555,61.84874539526557,62.05197865611015,61.721447348008226,61.61388189074945,60.37822637750748,60.430257753796184,62.858212077052194,63.21490350399192,62.575865540681725,62.76065561169234,62.899493600746105,62.778917823568555,61.689781519548426,61.69789350996936,58.331178387577715,58.90081363601242,62.77503483062517,62.27437882724801,59.26450717276747,61.997990222948275,62.7527591522574,61.41258966522758,60.92035117531696,61.825596028479325,60.615377473458345]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>1.5997</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>5.3267</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>[68.08374925014486,66.13605571865091,66.26063668841758,66.70133885981377,68.61695902876049,67.76588122199007,69.71558761612094,69.51513781453298,67.2082873685882,67.51944037229917,67.86855677400156,68.11794641821243,66.2766629833961,66.33797693573116,66.42025899551669,66.49383997491417,66.75812751214917,65.6049227074513,67.61911872593916,67.51909122090407,50.2060260918108,50.02239728935038,49.45417244275154,42.809243983137804,43.204141825298976,45.56672442945337,44.808503435394606,67.8815686506301,67.08400456964047,62.180704260675725,59.13897866711989,56.78486613881574,55.66590621161658,60.39792899450115,60.68658819283818,63.47772862387302,62.18686567297489,60.05019040354521,61.14705912358026,68.2060491798317,67.24187714352372,67.23205051584628,67.38854677268542,65.72996523707025,66.87891968439,61.576926617986224,59.23780840522222,62.99876512247872,60.52880777405628,63.60501621118419,62.76364141661589,67.92925909769252,69.08356295846806,62.46433620982002,64.19041780364212,54.928636742037504,54.3760247346155,64.80466026130536,60.644262825788154,50.762935912419124,51.48240731269237,57.32832093880379,57.227413604599285,67.60664042400096,68.19405292138316,56.95975914183449,57.29402348676862,64.26314685241051,64.56733518052094,63.626251692366665,62.033576289204895,52.98692187204254,54.857687497757894,65.89151295244878,67.74058293664396,65.28776423350392,66.10860861255688,59.847109015388334,60.64128126306314,60.14735848199227,61.14138435127146,48.071868824171595,49.472134167934385,66.9448351085011,66.20423628368917,45.95856964520725,58.26493049444809,68.38828801175246,55.127370144103054,56.74908687206049,62.392906688266336,54.70684066230903]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>1.4675</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>6.4203</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>0.7687</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>0.8787</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>0.8785</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>[55.92347762332161,59.04269477797778,59.307883544955544,59.26318378081504,54.52242974790351,57.16069767200037,55.15928343819083,53.71312298347183,57.6559986000855,58.424832493320906,61.39559203615423,57.189637424911275,58.05061035929177,57.999320810056716,61.299241014804416,58.93711660354855,61.34422557693943,61.48091169220862,59.712250140323555,62.29632638787141,55.671852113596614,57.01568213912195,49.840567623253506,49.950831078288545,51.08987332121961,45.70528794556451,45.23493829600552,64.10790851190531,65.15646391216926,63.77708109694342,65.73548836328813,63.91649451639341,63.964518619391754,62.50419415849733,62.39193126336558,61.1190104164438,62.2674704456818,61.702061799357715,59.3183919038005,63.14358566903955,65.13298677388883,63.19450399034693,62.66247816118492,63.8249709406213,64.62714501059112,63.79793464849293,63.67946681702857,60.759463497733954,61.88637875014791,59.343595198958454,59.713612363115466,65.60666099880656,65.88405644196466,62.14143486864121,61.7636655713581,64.39936340874868,63.636728631694034,59.02755347359263,56.78831206860359,58.27929036687847,55.463936531785734,54.32466267019442,52.63340704406521,64.46697353072842,65.49979788278615,56.866475960172195,58.35596928292036,62.889113290177065,61.79718748754656,62.63487448474896,62.27453282820365,55.1724952368172,54.15744721551156,65.03596249286944,65.0847833472698,64.58222337421132,64.86700812676797,66.13339841225323,66.46495319265277,60.95884411908959,61.72029213570461,35.421631791120845,35.42376165461883,58.22598729232138,57.26692150935193,49.2648141417208,63.74851890087377,63.62580039973456,63.85486990022087,55.79980354669551,62.914693639782115,55.08041137277456]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.9836</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>0.9708</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>5.8556</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>1.5914</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>2.8946</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>2.8947</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>2.8950</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>[73.4976776985124,71.48817406743086,69.4430168426708,69.62798023638896,72.23947868340667,72.06829809081538,69.88679398018,71.4340567057063,69.34739809286108,69.90083440456742,64.1125789017244,63.77247748932105,62.33513156034443,62.3275340857533,63.425136768560584,62.65941846093508,62.58053872629986,62.99355053423041,61.33024594561251,63.22017805526856,47.68124974712659,48.13166510483375,40.48378242331271,34.14364157873569,35.45922366922384,32.467035452048584,31.958422742649113,70.30067596250854,71.57818220668672,64.7802352928907,66.95798783747713,62.96780798336605,61.55228700786831,61.91999397907973,62.423611080656066,61.01444058236306,65.19746637703608,59.225110616516936,55.82945585582748,73.7195462411735,70.84018340953904,71.44075030963128,68.58593228001246,67.80531587665246,70.03782738709413,62.57150652432849,61.20166615340647,61.622555620390045,60.5159400034893,55.50087529149372,55.54078266858202,71.32324697083234,72.12997274436364,60.6668603334931,60.708795870578165,60.55708089360375,59.69882936248795,59.279298720807105,51.87732970453341,51.62656968267607,49.01458858716264,48.41224575873286,48.07886515108357,69.92789194617163,71.79410054000903,51.90306267714252,54.21575223625414,62.533287475930244,60.64099349261271,64.46672663937346,62.553354116265616,47.60163396197806,45.63514817441406,70.40508888389115,72.15651262255304,70.03539989504993,69.59506290313362,67.37528822123147,69.1871269324806,57.248985625229345,58.63641445721206,10.671338035795657,10.491694833267921,62.240725820542416,70.29242546845106,38.92709824460359,63.57722592961118,71.86382976288454,60.16365204421742,50.10513733240739,64.13252020739785,46.36513864519704]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>0.9736</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.9722</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>4.2723</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>2.2476</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>0.9250</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>0.9250</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>[71.91514405685653,71.00966245366999,72.84824499650814,71.67180296632694,72.16898858440084,72.82529319598589,69.34433059987538,69.57184469529031,68.78755813044319,70.54588273269293,64.79760329496818,60.76604969221951,61.00449702191918,60.48241531911697,64.67698828299895,61.85256846586019,63.46301531897059,63.61215041209189,60.71209348561122,64.73131144095792,50.48927938749195,51.92935716557179,41.28495296840791,36.82603854314587,39.023066820803436,32.08001733306577,31.279193654756114,70.14023003683748,70.13604529686211,63.91592372013892,66.87583140123375,63.41214128131769,62.3555293635397,64.25036133230732,64.40586775148545,61.98287894129825,65.53492781341433,63.1866087699252,60.5868068779466,72.59772251730324,72.8370896718962,72.60922436552836,71.97150958704158,70.7509554046897,71.64431338776303,62.79111772480046,62.196922582909664,63.60607824216028,62.218659469009836,57.36515994810051,58.70433230514605,70.11261268363867,68.7610380871952,62.57114070519172,60.895446683611326,63.76124272245664,62.56018011998012,60.751740968317094,56.25373249956064,57.02469358694465,51.86044186989221,50.254586373509284,47.43463493444169,66.37899168209998,67.93513117310205,54.01864982957463,56.15856711465321,59.06124294149386,57.89382057146345,63.89564660004548,62.75270489921584,50.11130166835251,48.55679489258151,69.33594416088083,69.18336980363297,68.1714738509732,67.95772762089216,65.98251125845364,67.53193400862152,55.58879778181171,58.121269794909736,8.432106525570006,10.24810099105126,60.20747723790912,72.61940802932031,39.19362697508939,63.59982696976371,71.75622641786578,62.758160167098325,50.87169838258926,63.71719199525751,51.221893217952584]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0.9965</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.9913</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.9931</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>0.9826</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>7.5802</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>1.2073</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>1.0050</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>[72.71691827808647,68.80663138677792,74.29060389258163,73.8590539499682,70.82867777620409,72.70351841657954,69.65205641076025,68.87076823738572,69.74276656104774,71.97921363011312,63.2620547866979,63.677354501796074,63.363966790385255,63.332592075371586,63.30496825139007,63.54446453407148,62.86794699735881,62.23853598096747,61.88663872585978,63.56197746379895,44.25596823472756,46.01959350840491,46.501903238306625,33.248696785618975,38.29936588803771,33.70846788350249,30.331966630945303,70.8175678782895,71.8229177877747,65.952565413157,66.55380811678725,61.88222007665487,60.41236671134149,64.90830701582777,62.71465782087644,60.82200799640526,59.11768981585441,60.553743171483966,56.91234068264412,70.67387053627675,74.69976462139351,72.98891049510321,72.50738328831156,71.98291132307483,71.58696697264419,61.972824402071815,61.7372729209123,61.79458089004604,61.378522435326545,53.46285927945454,55.5464092213264,69.29337379323275,69.40498567956432,60.59293766443341,58.46933301195435,62.17936744302623,58.97038441874007,58.28983888896978,52.68278838886887,51.739303342453404,51.800470067719566,50.09350328489165,53.18789765153167,69.51193781148638,72.46875305977377,52.623793079312385,56.75798228220597,57.568378557988495,57.791861911407835,62.06544972816712,60.94532583870653,47.9822743621214,46.28555578089103,73.86706124901903,72.2004214732138,69.91971607576544,71.46183360430115,66.42668280522291,67.67410119252736,57.73212679771177,59.499521618486355,11.284410417698737,10.84974306421065,63.39585727498163,73.98092343020619,45.87781953502267,62.18688664809176,72.63161883225065,61.15645569479179,50.61784513573582,60.99766257170624,45.89983389900004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>5.8888</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>1.5946</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>0.7714</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>[73.19791881323178,71.90900960041066,69.30679323591505,69.7215244221313,71.86758312013475,71.88826384164128,69.84440484413574,71.47703702115808,69.07657522124242,69.82320949158117,64.56727971097743,63.59414474417466,62.33272025795369,62.25329950342409,63.77314564856021,62.761830816876525,62.80183896452135,63.19792776721572,61.52454369255947,63.802273683849414,48.25711441328428,48.43113114071382,41.11897450574477,34.184739354218486,35.183662390231056,32.4704657397394,32.1142976400944,70.67667523452809,71.99741310271568,63.842371747662874,66.60440838483825,62.91800917263131,61.52621340928136,62.43742067174927,62.897555034777774,61.07825766289506,65.63685656161351,59.615616468497244,55.990746373320256,73.78526547842704,71.50854017280665,71.8349789243411,69.15254574963842,68.64781905493066,71.11883714201407,62.81315121087885,61.41297732705505,61.831384162693745,60.82853137888643,55.45302582357604,55.53655381596739,70.76227075937959,71.6334036130242,60.624005218235645,60.51349721978152,60.846576116605796,60.286749268090496,59.26863659342402,52.03733226115461,52.07171655902568,49.30765466746775,48.408958992592936,48.100274994733375,69.75197432488527,71.72613238810183,51.26180064460089,53.393601223262074,62.29896982833524,60.32839844780387,64.2773861166925,62.465213407130086,47.7967855657541,45.71297590832703,70.05494418524724,71.84862138268899,69.19493618306717,68.76261236996147,66.62407769786515,68.5865957390044,56.59043303810392,58.30824952070565,10.690111435525395,10.586955701623374,62.2268899358388,69.89271570860484,39.63947865896639,63.51372575426206,72.23172604598913,60.56915474212921,50.08592318532889,64.16588488301414,46.43429136063103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>1.0731</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>7.9479</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>0.6582</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>0.7112</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>[60.930083544725335,61.120679540267375,61.47346544899791,61.55481635612621,60.63727388305257,61.16368936850702,61.0887689504187,60.493657017698,61.37938722517845,61.659461283788374,62.47268955372232,61.840493745346976,61.64077255483548,61.71136070566746,62.28881720736827,61.67133696323697,62.352578808318995,62.101044775012895,62.233070403315,62.78974545186041,60.26804330368056,60.58814183555822,59.44018886595542,58.53754719594792,58.95700788621437,58.88239827756156,58.751108765065595,62.64904853943253,62.71176688909843,62.43598118693417,62.56572160361954,61.95963645355566,62.04534841932029,61.93874368253056,61.87207245077251,61.894403769562075,61.7403407074701,61.80397291469892,61.542346222401676,62.271429451496616,62.99955462286715,62.1880750535053,62.38590294015464,62.36840036800976,62.65110184840579,62.45218962599847,62.27252466777762,61.67975449419278,61.84567001416744,62.09861616924806,62.06613361452091,63.14769350324957,63.332575851990356,62.109980572130524,62.21392904750181,62.09125661184578,61.90410093023563,61.79496807077962,61.05295648319209,60.792294067526896,60.549247874573666,60.85472295763773,60.44275302478192,62.998127231167516,63.23340487098106,61.07075950938848,61.304635976719794,62.513800952883074,62.501755833512064,62.07053358144016,61.913799719494904,60.57680839313949,60.57923654040576,62.75865469085713,62.90349118373217,62.53650918677731,62.74134308736495,62.875251332724346,62.88919231907059,62.1306533551563,62.35507269442563,57.5718990023889,57.71303433761754,61.84500574198334,61.09094409144171,59.15156383201224,62.05169785155299,62.44038964844627,61.981537867603805,60.99265151326415,62.10595407229168,60.69219070126904]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>D2_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>-0.0277</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>-0.0168</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>8.4360</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>[62.055903383784376,62.03202588814998,62.072688670398726,62.08685734059849,62.070713856732816,62.08240940617416,62.078743872492204,62.06703332287575,62.07764617559389,62.09700478146261,62.150868570004995,62.14343416358626,62.12416683144185,62.142022912159796,62.1454761162318,62.10728414319305,62.145345621339025,62.121584341476144,62.153283003675305,62.1769482001798,61.998110532383116,62.01482337229967,61.97687711190999,61.913557657342444,61.93601184135293,61.96461089729112,61.9621238672268,62.118736956533034,62.106030514805816,62.11129292705643,62.100060462546345,62.05919067265638,62.06889272671754,62.07180155121714,62.056081933239334,62.07492445091105,62.04043856057633,62.06005438926747,62.06131115914706,62.08522966509013,62.11773919861148,62.07399747947901,62.110685150732955,62.08792281615752,62.10352845270436,62.09632753313081,62.07980268185191,62.067938202296425,62.06350450353916,62.10938930761936,62.10667815383109,62.145079217701614,62.158292296730316,62.100123959961984,62.106841441064425,62.04906394071063,62.04164169626207,62.090037061696385,62.05960865742026,62.003385960445506,62.000263399981186,62.028475007035105,62.00921078062226,62.135359251112654,62.14261891787668,62.059506531989236,62.062223345233384,62.10126331563573,62.11610684966744,62.06163387516437,62.05888312464088,62.0103082310976,62.01671446528332,62.11133258165473,62.12840175408892,62.09413707062111,62.112623770173265,62.11053613916376,62.103843469615136,62.104655599426785,62.12194190576309,61.92356417834258,61.94714812107609,62.13937754561693,62.077923407644654,61.9624949491354,62.069903878936394,62.0915557448001,62.04523504857193,62.02636376824481,62.06515238435177,62.022905817108885]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.9826</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.9846</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.9654</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0.9695</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>5.7260</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>1.6243</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>0.7721</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>0.8273</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>0.8274</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>[72.73594488589691,72.05841764379242,69.39678667283849,69.90151239424549,71.96895890971248,71.82812305834403,69.88954133384225,71.28005160307366,68.69937490442645,69.72679231235077,65.08922098196038,63.71014757805507,62.32059832131876,62.27013466824273,64.15220697749405,62.920143870810975,63.129456132691814,63.238870729997934,61.77156729388948,64.23996571244227,48.32872476273028,48.524872532198906,41.421962536227745,34.17100523414704,35.14702758769602,32.465370237965296,32.16198024369819,70.55525113531584,72.01022094650503,63.087354841589026,65.9562501795325,62.48934982740895,61.249208842242744,62.78160829751864,63.224238150005185,61.282557489887246,65.86598551793466,59.9390928494602,56.13673699616151,73.83145717640664,72.0641807324476,72.05031809745175,69.21668105927057,68.95795063916697,71.42745373691065,62.990906106038516,61.71086444052606,61.77291356172181,61.10755265861122,55.499418820579095,55.61896385857361,70.17435458925121,71.0835774716942,60.42984118777026,60.23680914328789,61.06971918683974,60.35201383221017,59.08441271619157,52.06095349843333,52.02478574591782,49.394334565295075,48.30486612833892,47.90909087114884,69.3493608418855,71.49982005096348,50.24178017843274,52.49940284932671,62.396823385095495,60.32471085490632,64.27546903101614,62.576718099706774,47.98236119988503,46.04007073963508,69.67524727298022,71.21942394901555,68.53983293115485,68.0793206904996,66.06145413815992,68.17811822920254,56.19794060183349,58.16785373449061,10.681863181868813,10.514695490827158,62.20282104952948,69.89905176676142,39.75008966762571,63.130112123832156,72.3999144333561,60.762886215351536,50.13264234622314,64.29627711754645,46.5093921294069]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>0.9785</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.9574</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>0.9556</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>4.7446</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>2.0168</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>0.7732</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>0.7734</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>C=100, gamma=0.2521, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>[70.845427511348,68.39831801834417,70.16541274733761,70.80655689931352,70.53198676926019,70.12043761954887,70.00286943238345,69.63253441744986,67.43889704992593,69.82383442907764,65.4069825500528,61.73209869770635,62.570472192883244,62.09367842536949,65.1526378430647,62.29286656326923,64.05228520001364,62.95836419820425,62.416789730103105,65.82354308277559,48.59620281982306,49.5754741975792,40.69173372764922,39.58519173196255,40.5312140743365,32.344721767912915,31.548439236800263,71.9222892951343,71.03059369189087,63.46414287710488,66.26408820212559,61.57171688155442,61.097983494606396,63.19951375477494,63.534056550203914,61.44470593787237,64.37113975575986,62.185715195208616,60.21793637732905,71.568422562656,74.59321673139323,71.5330718502539,71.86102472210524,71.0831851223455,72.61619729462996,63.09430422803453,61.92839541391069,62.71858410116707,61.51031196565026,56.95516262358595,58.318432789020264,71.7082733061484,71.05514865355416,61.59333340175505,60.44291456082799,62.249190358245585,60.86301233029255,60.504261023658955,54.92433205642482,55.054061175200445,50.04946603857714,49.651800034686715,47.3403557865264,68.28307659017618,70.78917296285508,52.39541914298445,54.26189413297429,59.90663793744902,58.804927960062855,64.54422163228661,62.51852505166583,48.08267864723763,45.495833596016894,70.46679138884099,70.77714502632013,68.29605318357157,68.92035046216246,66.76596567352522,67.95585814466556,54.61626365012506,58.00174805725118,8.803770145066537,10.189611879728446,61.30792394978894,70.52374598054091,39.293127436433664,62.29908540795154,71.90340755805053,61.38350825660024,50.09327878704963,63.739437068225044,48.98827415707245]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>7.0484</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>3.1813</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>3.1814</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>3.1814</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>[66.88324874756393,70.2158319927625,71.29639388172208,71.83115407016747,69.7913191101142,71.7944092391403,69.14170721189461,70.49249009298158,70.49820888911844,70.50819119951517,63.23166673693743,64.75220146876927,63.163125170839606,63.28647945611772,62.80309537073808,63.31693997921712,61.4547410967082,62.25526005162354,61.73877851358584,61.382051393450894,46.38840000871512,45.21789773713935,37.60908201845271,31.414803955070557,33.697505818345,30.25644770010293,29.699134863440193,70.63739290956698,73.31630688681685,68.6450039695692,66.05903987923888,60.1806049194158,61.75790082780835,62.55930706745027,62.460989247605916,60.67827190810934,58.68200836446698,58.74453446248052,55.232174591441634,73.62658209224449,73.48424646572568,69.81606149167882,68.05522711544373,70.99628427719539,73.03777877602174,62.15274593532868,61.1612375154526,60.24463103658011,61.13351939891946,52.53011720059193,52.51808764845223,70.74361597020233,70.04096503610616,60.368131319717776,58.921820396055985,61.37304357152378,61.61996776839024,60.41068529702218,54.235763369244886,50.426072693566354,52.95725893325693,49.64656620126781,54.37862443867116,71.83534703804146,72.97916404749878,54.784149222781934,55.23502187409467,63.26327545618672,61.79795880003467,62.01018707480378,60.9590976104899,47.94424639201174,45.489310726075935,72.74291825633088,73.06000594746541,69.5311030688984,70.48409635197929,67.14944941398727,67.62640501212363,58.84247066826917,58.887096295986346,11.008339155517952,10.1822326331476,63.06251185253619,71.33127171489582,45.36682434966917,61.53988890384673,72.29422230410808,61.42561596583539,49.76476748797778,60.70443302015773,45.89994063557662]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0.9936</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.9912</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>7.5574</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>1.2114</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>0.9490</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>0.9488</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>[73.56706548605041,69.35608789805886,74.29609546886093,73.8584251309021,70.97008745250278,73.15214388297719,70.06971418387874,68.49577379279944,69.66418980485462,71.74778642066556,63.12872777787905,63.482825199680946,63.046741277505575,63.20742398762286,63.75173027620737,63.108320965309346,63.572788791683934,62.52476307484503,61.71081280472468,63.51192335766735,44.4551567155906,45.969149909420416,45.49634210160467,34.07020211743391,36.805384600990166,33.67341654443706,30.23818154603542,70.94014102597744,71.80477774273072,65.73669789526716,66.44804468220272,62.121923671452265,60.6320207412115,64.28292234182098,63.06484035749759,60.120712106924394,60.41290774497337,60.21896583425773,57.11070129340427,71.1999439002849,74.25264250561524,72.76462599213309,72.39259039525113,71.91510901978285,72.09810125621198,62.15930204315134,61.7591798872137,62.27651593499488,61.497732208695496,53.21397336230563,55.37838588359548,69.76996774625229,69.74645851232829,60.898424624058904,58.456474571522634,61.817659378299,59.127848442953116,58.1578619643071,52.868322799099374,53.63874383824498,51.65862598322247,50.533360874532605,53.64173973446846,69.27149929315661,72.06591274121979,52.68701909203832,56.094074959966456,57.17301110789242,57.55050127104577,63.337207944796546,61.5463529969454,47.35034966610898,45.86225379599162,73.6940921625602,72.21417395354202,70.26975892449795,71.22856603038359,66.75850301585884,67.81347046679076,56.4056503336284,58.63056036240646,11.056955767240481,10.77993767662253,63.21996964389937,74.29245277506786,44.98713408302669,62.55766404320258,72.59563560394551,60.91405976808968,50.66791983239534,62.45694014869348,46.08988897185547]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.9926</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.8473</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>0.7180</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>1.8831</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>3.9569</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>0.5697</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>[60.3069099800398,67.55096017765209,60.49660793035257,60.331028163193324,61.78171993038182,64.44003152816036,63.588454874673275,64.06124166365896,66.02111596506676,65.57040308155625,61.3325622411847,61.5634534057752,61.500220688190126,61.42912233393063,62.12686887173901,60.46524666963566,61.70832524016944,62.13301531146075,61.548231214789,62.25960412815769,50.648514184691706,56.80375732214153,50.52950797009606,46.77622905882346,50.2068768792787,38.95285621777994,37.42202683547774,65.70752347570459,66.23258564012485,63.60450056154795,65.8161547546276,62.49579208805011,61.46469141814765,62.41693979149821,60.71235897010177,60.57193150107266,60.138508457309044,60.22123501153129,56.85014100687891,69.15402283388738,72.31200195409806,70.85715440543743,65.1997894124466,70.58008074572572,70.35096164498353,61.597609589630906,61.62785445733776,60.44044145110654,61.071762745104756,54.57891785972244,55.41380313531663,66.89557242759511,66.97470921674713,61.365722225810444,59.15801195374952,60.87444326096789,60.6571119206065,57.3445695361082,55.54305701093593,55.38531802022655,53.45678036357931,54.82044079664679,58.6893376445128,70.01581172382463,69.30693327082065,56.406145813446116,56.618611970697785,61.50516453026849,60.318604385791666,59.98521814158486,60.168400692651225,51.4553083989106,50.08123908883087,69.9802464404065,69.92973917752602,68.5712586089272,68.14599757918484,64.99931694493674,64.22849049579544,58.86529463707072,59.3504429263645,39.60165443343729,41.897459647238335,63.70856408995495,60.61904820256844,42.306137760777546,64.01062325434451,74.26252782925141,61.14299860723141,49.848173846298224,60.042244834617904,46.099922034053684]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.9971</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.9906</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.9943</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>7.2997</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>1.2029</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>1.0590</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>[73.82470591487115,70.47355548887543,70.4159081886641,70.465523060713,71.31045140610513,71.6383194574498,68.57079655760117,70.3471967473822,69.79677417423264,70.00875675580765,62.771236626752476,63.291642234974944,64.19768216109117,64.2534114314161,62.9852011872075,63.28117023350466,61.3546602100934,62.619148228392376,61.72699570382851,63.12225819311113,46.466622036169454,45.338111085158786,37.201519674833044,31.388342822018345,33.6561108860245,30.175940676730903,29.686580718958112,70.62618715129804,73.05466420505368,67.84495206124019,66.08783257468554,59.85702004367355,61.327117011042695,62.731835579890365,62.920468402420624,60.673218716372574,58.90005592752206,58.58358109700979,55.43392056248802,73.4116169726636,72.37512674689329,70.94843885949585,69.15976806962837,70.71326998374433,72.4446871384807,62.526180626500164,61.6184464226966,60.787113423960825,60.7104327563425,52.48903989721805,52.63332921059564,71.02363116862044,69.89482226315464,59.92998809871746,59.23886483945303,61.3677660724802,61.99679032921761,59.80783065551012,54.628681006792455,50.64306234609604,53.35937723761035,49.484601584650505,52.97623671158354,72.17306553121509,73.18533788475052,54.99297917130873,55.4546718408277,63.34506148343105,61.47921592459313,62.94055487248996,61.311295648780835,47.932633635540775,45.555336418797125,72.8941232791516,72.60669233123603,69.70149985741352,70.8172523211634,66.98794954098949,67.74478644366356,58.601419073460434,59.46091980091121,10.916292525077125,9.97548031654837,63.76951515626947,70.8620128920229,44.89466552861045,61.321803040408085,72.5936754052037,61.512294639830706,49.408408372856606,60.84186967756849,45.900040712798464]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>0.9730</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.9468</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>0.9482</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>4.3931</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>2.1478</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>0.6400</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>[71.31763802277162,68.45566983594996,70.27430264064309,69.02046891501327,68.83078569822592,72.09249751528583,69.91493572220243,66.09296892263974,67.8659509179929,70.98095274762771,67.15657385946844,62.873967331466915,59.31432672031521,60.55814567802811,65.79184666230489,60.63828574442073,64.47518217508572,62.066607014987085,61.6715508507517,67.55406718889886,49.88617803048946,52.858522119799204,41.05965404940996,36.06061203609917,38.500449309266926,32.906941358574755,32.031104138236046,69.67125773871028,70.73016611704581,63.39163793512742,65.30710305154199,61.46221824248009,61.70693742776005,61.24657137415815,61.57841270510194,60.366862380359606,62.61943455905558,60.51494514987523,58.64055366583878,73.9410635420325,75.02871957632185,71.60900165231465,72.83328554370148,68.93825932471906,71.55214800134675,63.189178962112535,61.75395543902255,61.05066708512746,61.61038520182096,59.68808772775991,59.50778506162618,72.80658500278405,72.29855244862895,63.15546106813615,61.741294552036194,63.02192724131672,61.70278182752516,60.76082694637337,53.40077839343033,55.51535384655354,51.69324788733246,52.92635461262678,51.200077313289256,70.10213383666361,71.79356021201782,53.669230345647776,54.69524567430466,59.687226917002135,60.22949025933164,62.73685183819967,60.25895867866157,48.269533457866075,46.27628352668553,70.4047723317009,71.38693032782112,67.32490649079134,67.95310946129437,66.94107436851296,66.93936302794927,55.641862308140276,57.28092835499244,7.622045382089027,10.275229506468989,60.69623713222809,69.6261199231401,39.622320731414234,62.318279836752126,72.15405686346759,61.86149494958087,53.15364827860846,62.60188316647226,49.78189273821965]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>D2_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>7.4798</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>0.6339</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>[62.9911280327275,62.24310656642078,62.5930135608382,62.398241665789655,62.73611586555347,63.23520653370878,63.003442315162076,62.4072685447064,62.630336945914664,63.245728345721005,63.24122566410455,62.82840609144171,62.08568810679776,62.647455673513605,63.00389480995608,62.12921759995699,62.90842198860129,62.349843976108275,62.63174338832778,63.61650031211052,60.019436184247894,60.62886733763318,59.012031525469155,57.609525234443424,58.157504591377275,57.982000772861696,57.82691121511817,63.11015205336841,63.16202243107149,62.41211503657141,62.56859274879176,61.66708708398052,62.003917245574385,61.93261083703504,61.67567968866322,61.73572656452019,61.680680164079774,61.48779346634751,61.31375837975433,63.47033974156763,63.555267633321506,62.953009503824305,63.41244915388482,62.565773773931,63.080269965256704,62.314296056488004,61.95076636734758,61.809348082345736,61.850067803937094,62.02280626954183,61.94106411936663,63.718773977868054,63.81624837260321,62.32462106079454,62.17326602478052,61.8925766276091,61.66538991382181,61.87474490117259,60.924338650756354,60.58835604964442,60.26960563310686,60.73908105892836,60.47883247913663,63.390523628052065,63.58396793277461,60.77410968273119,60.95616241092192,61.7560485404764,62.12927629375449,61.662887715964956,61.46554486619772,59.84958959674822,59.75939505021691,62.985702832364396,63.51667859781321,62.53405278706863,62.673799965256975,62.765830688536155,62.58289311434572,61.49237018160275,61.79134435012098,55.19216587479667,56.05016381423617,62.51620218367579,62.72742426038802,58.6367327909019,61.94142168491413,63.16176632624071,61.68986411611745,60.71537633735552,61.80629956779612,60.03212417397374]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>7.0161</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>1.2395</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>1.2300</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>1.2828</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>1.2828</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>[74.54577043929376,70.67820010237979,69.9754188857817,69.96839603363775,71.53802904514691,71.03412793981849,68.39186421127832,70.26863080088476,69.40272142155533,70.04084715565006,62.96652589476126,63.03968991916044,64.96165971407311,64.84439541391829,63.334508142662806,63.644351356188,61.58250238808146,62.36629741040705,61.98909370068638,64.11964412049429,46.27344699659264,45.71085258870109,37.140004769465904,31.29812084696919,33.61284752984972,30.069986098792235,29.517780081395927,70.9095568894144,73.12377919919847,67.29167459818801,66.12216510078645,60.34405806214813,61.296562513104014,63.325381668226115,62.92384168912817,60.66306902156222,58.73973522402135,58.564725971234346,54.97244234311956,73.38232494462446,72.27945485180933,71.33906486751066,69.62119270395901,70.90934185981291,72.37152701804324,62.51508457044853,61.796472669931525,60.96699016031671,61.02192431969947,52.31125818861131,52.300455171648636,71.25583564702949,69.89943855777774,59.923110176651754,59.35118795226541,61.36069723506259,61.96010864414608,60.34712279026446,54.3947779498453,50.67009557179969,53.2926301298707,48.81115054281122,51.65715685328151,71.95093579809334,73.0767610026881,55.00045789705685,55.49650942104232,63.301477624266155,61.29357918689218,63.26138177002818,61.293438502107136,47.6095706248699,45.55192808018612,72.85871067197589,72.50807702991958,69.93268623748915,70.81375771847377,66.71697632743039,67.81293014005146,58.56245495744348,59.51708800348065,10.667615225847229,9.871657427863596,64.02668533555227,71.28361675579208,44.89282075919901,61.416790366628895,72.7413127473647,61.526072840404936,49.19632848573395,60.62945126759596,45.8995860183798]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.9864</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>0.9861</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>8.4965</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>1.1416</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>0.8515</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>0.9596</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>C=100, gamma=10, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>[74.06571762033207,69.45345887771647,72.40248613933336,72.25600172293625,71.18546238189967,71.39724573669653,70.91644415323532,68.47456213976383,69.28707480137636,71.68866348533956,62.25342574194626,63.435456287530094,63.2166804179598,63.542159070944535,63.49483784294962,63.34097631005654,63.09773558062153,62.413371694464516,61.618716560974505,62.207071489691884,44.51663823610289,44.8646953240459,47.22239913491271,34.90077439184504,37.6831908592799,33.69441968642132,30.27843560972064,71.2649698180016,71.38689149715414,65.26095354732445,66.75456940167936,61.64512049179989,61.07144984813746,64.15172942626444,63.85204494427666,59.549560351214495,62.99621253663079,60.0815884663385,56.77295452760593,71.43851020685341,74.55083953170802,73.61364567458148,73.01973537654108,71.94845710752818,71.55375523274807,62.446771973950256,61.739278851040005,61.9862370485949,61.687293266574045,53.11749768584201,54.91426429418885,70.16700658630975,70.24012280493785,59.633465390357465,58.59306523225256,61.9555866741274,59.862822902147656,57.856409065938834,52.93374998613941,53.64716962813764,51.0722256857667,51.53755812521074,52.27638538523563,69.90709457931507,72.89510378852258,53.759167533020886,55.65679304311648,59.396790204515455,59.63232462105643,63.6266259726691,61.491717242046676,47.77182751927788,45.233818750722556,73.01751850113007,72.41769855432261,70.53254159337673,71.32984972366503,66.2234731226454,67.49785206506863,57.513913784448775,59.051781174783684,10.308453791311265,10.346348739941668,63.25287197006377,73.0814908777524,44.060378570877425,62.382113025847524,72.72050089125592,61.11196406596481,50.65167328785647,62.43259138168146,46.099971765550265]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.9886</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.9894</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>6.9021</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>1.1696</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>3.0068</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>3.0069</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>3.0065</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>[72.33253500111186,71.97210134195248,69.67271343419695,70.5199861908248,72.56875673420384,72.21341413860955,69.67272137656326,71.56693541422459,69.80544774890413,70.03794685424413,62.972301834834,64.27150709733537,63.46231977891855,63.59412050582756,63.05632139169464,63.0314409558378,61.82312245664224,62.35106662089391,61.49379998879045,62.139448374841805,49.182197179211435,49.16723868204722,42.016175020387415,33.97186931511943,34.16049764197023,32.60811959950771,31.992434893805573,70.27805381493158,72.37477839510782,65.57824347266238,66.49931762228275,62.376682673508746,62.03038298241158,62.28649356197351,61.8824956287152,61.07492201443728,63.47190835394922,59.689692621604145,55.865802766938714,73.02947370216505,72.44936980592895,71.45963139854136,68.43357604453398,69.3520628887912,72.06268606096282,62.819004203991604,61.315108964826045,62.26638572453646,60.25800491806196,53.184817999584254,53.83225371916826,70.29758193376477,70.20673695999652,60.803750271258984,59.45942214945665,61.019743118983534,60.404329571292585,59.6504796250924,51.13926500602693,52.13428393495473,50.51984865134262,49.545100378381335,51.05758275462801,70.26509981820105,72.28820342525141,53.53231755501204,55.794890354883584,62.21210057525768,59.93001975249097,64.47127383923726,62.12504808998588,49.113102255198406,45.72591075632835,72.29706603487986,72.78230036928723,70.84634973952632,70.52098348757694,66.86911357136387,68.00141290417477,57.839481240426046,59.275881712376524,10.824154673678969,9.944449002847314,63.15346329989977,72.1548246190224,41.54414318691499,62.52263664506819,71.92762185739319,60.90706420025261,50.38536703087917,63.29529394246158,46.24769384849605]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>0.9815</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.9633</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0.9624</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>5.1565</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>1.8228</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>0.8254</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>0.8253</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>[72.25150587099458,70.8290701621448,73.914332539522,72.2955520755817,71.89502739292186,73.31561168293435,69.450063685933,69.76201707544921,69.21954298783092,71.1468446123243,64.75883774012017,61.31696260355088,61.69722856306623,61.05987039241063,65.02015061818149,61.458420954107055,64.07313160715843,63.646508309001646,60.954731500024664,65.65920092938671,47.28287299235238,48.354712139557435,39.425963899875,34.67955211581088,35.763192614176674,32.739729526133445,32.507094695874414,70.66609069182192,71.14081775568594,63.91394993904271,67.25809579983724,62.63930835765866,60.80426127925048,63.95302889028363,63.80130362897266,60.88678834458044,63.921971363957326,62.18016034675824,58.9684841831329,72.87684216467724,73.96086451056213,72.92501339737383,72.67453329748434,71.54542311737991,72.57565954937645,62.03734551939496,61.183774430474955,62.76756487248032,61.264141013896776,55.01349473722425,56.630191368013186,70.6298271883738,69.57754193707983,61.6680077774452,59.54099325231029,62.4273054994343,60.991657563117656,59.46333179020726,54.12098125461462,56.130156228629346,50.96927740376886,49.34164399962087,46.75168089107875,67.40653348135406,69.28702192180145,53.2182476315283,55.46540290145691,58.07698224022275,56.70754459337647,63.36936425137188,62.245188172956574,48.63370389936621,46.80277049609836,71.13560452328728,70.82107077855245,69.29589453602692,69.1703935850198,66.48233344552295,68.43715076632351,55.05477095901074,57.618969735165834,9.690545341907054,9.91704618099537,60.86737844421029,73.40259974405525,37.68559699977246,62.69124488154921,72.46608201827287,61.25648620094488,49.92286733967099,63.35142854932484,49.2892949898295]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0.9993</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0.9834</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>7.7646</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>1.1130</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>0.8849</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>[69.94467986346068,70.04935023894723,73.73314691329992,71.49082790083851,70.21813708977282,72.11011616451565,68.81328561250801,69.84993491273549,69.25572055781466,71.07891158320587,63.647603933032485,63.79696697117971,63.054284530597776,63.0374170268502,63.34595489134674,63.05336645642717,62.135921379565325,62.51069086227994,61.61720158721113,63.203708729183475,46.578454156464446,47.80977354058705,47.30660159007088,34.04666720310259,39.344449928933095,33.62509575107987,32.28788933511154,70.70341514814157,72.41793807542712,65.68009615176567,66.61122026275946,62.112709048047115,60.58409266200226,64.29071447170232,61.69717381668927,61.01185924904949,60.310718036598736,59.87728909307832,57.630978683246106,70.61703619196827,73.9577971294529,74.19766020155686,73.2038505288416,70.97977611448354,71.77480970119882,61.97944862204998,61.48175741289458,61.35470755703749,60.72858959373829,53.42342998681458,54.98059043470267,68.93647945059558,69.19533602185061,61.05322046145176,58.44270774380086,61.1401378669998,60.652192728650824,57.78243605377029,53.74215903612072,51.48138039199149,51.937597423591356,50.831656120821044,52.81223905952086,69.9649026067679,71.42844154661796,53.96315707377459,57.288864497496036,60.168776502544716,59.20760867386462,60.168095526605875,60.027428587217535,48.11288859188954,46.96123688810978,72.81945347415788,72.13057323982369,69.9451870812316,70.18584256694177,66.55859965873982,66.84350176811265,58.623325569388506,59.22422673792836,14.692257994876115,13.176844982653272,63.48558652051647,72.9533795167329,45.863516086038096,61.97854307680048,72.83116705510159,61.36890510854429,50.606626408723535,59.79910163012295,46.1001769115981]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.9758</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>0.9780</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>6.7494</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>1.2257</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>0.8055</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>[73.69576321824096,72.2154497577537,69.19624417538402,69.8956678523407,72.50945210623483,72.4059419277719,69.74715065361717,71.73809460379437,69.68457341554533,70.00927071198734,63.59158239366349,63.98060089267881,63.08089664451927,63.09327128036148,63.2055622198897,63.13564718789161,61.87543267253285,62.541281529005616,61.52923071256237,62.892620914797206,49.18893192554899,49.08012705602935,42.0543435244603,33.95812284580907,34.086622068796395,32.49633675197335,32.06190945573902,70.24527135217544,72.4268709933337,65.26765829524018,66.5248322673683,62.259063154330484,61.900446683332724,62.465728114600275,62.216638812663646,60.952592030201245,64.01974838544972,59.63592146118547,55.89872804700893,73.24950957444068,72.34582165335038,71.67905616423081,68.54597674842825,69.65907726429788,72.34783348822633,62.919938173668875,61.53266473415047,62.58784639914626,60.30368039481735,53.13378846600685,53.78790000345589,70.2758777156769,70.19730002411241,60.916493969293,59.440539572279164,61.10668167940094,60.66344375101296,59.40234007111205,51.487517387632266,52.17596937028397,50.486556931354066,49.77107537347938,51.443850496460946,70.22123320426795,72.4140477796962,53.84438021131458,55.66196371832075,62.180906161406384,59.72333660879484,64.47926281268093,62.136229437134354,49.238404498038214,45.80740729248615,71.93664991885719,72.57910523407818,70.77237372757764,70.17652074665668,66.74060244328112,68.11939020849285,57.33034215625649,58.991319132639404,10.798034358818029,10.044656597816548,62.90478780012684,71.29449166115921,41.421705392218534,62.59362650859956,71.81334554731643,61.06984600214789,50.23477041545993,63.37180768796543,46.550513205545315]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.6749</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>1.3551</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>6.5430</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>0.6570</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>[58.72878978347337,59.531254911438005,60.764420085003415,60.44084303040395,57.929057446120346,59.74731437271243,59.27358438199982,57.03382089213782,59.959996814462066,60.868871547584796,63.26605501700556,61.018824938203785,60.30322066055955,60.498954552334816,62.59847513009907,60.933240970742624,62.86272728918042,62.13964539212099,61.98978335164551,63.920465169086235,55.96005706454269,57.0707572675686,52.717025715592634,50.44318992005186,51.712440438625386,50.34097935980143,49.8722474339116,63.55195979227528,64.1273407922832,63.00324451792927,63.841222697815915,61.98231275695985,62.25570735391337,61.39369632862583,61.41933956329368,60.94484361629399,61.431571621986656,60.77977147587492,59.694877596188654,63.44748465909533,65.01896443642596,62.927628277868855,62.90701699044789,62.79570259542982,63.761033002101165,62.864045720731504,62.393758965813056,60.56931752398743,61.23455381702485,60.97333275276414,60.86042440864521,65.61788885247765,65.91548572664132,61.64155782682399,61.71237187399037,62.5874077423991,62.00611095585237,60.33580932599613,57.70435840515558,58.18843632358645,57.073518570640935,57.663431019048126,56.515131076572295,64.66875205371826,65.43381010009662,58.17105069703074,59.01939604310537,62.439839394005,62.31110564719659,61.999837852512734,61.30436742044656,56.48373096791115,56.13808757483718,64.24758756284209,64.75590856813704,63.87997311619784,64.15276594852435,64.75541308968266,64.86803499411386,60.921603529902974,61.47290442534278,45.452407400043846,46.045357709280715,60.917735376624485,59.492781116590415,51.878924159115876,62.238103276318576,63.41941980810096,62.16359330038535,58.13071429619769,62.10436826703734,56.65701563214538]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>D2_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-0.0105</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>1.0019</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>8.3508</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>0.6791</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>[61.96505383485793,61.873002064661584,62.02545088049738,62.07489445036996,62.01975756366392,62.06593525994693,62.050580255470116,62.00243835502297,62.042564727357664,62.117469269793865,62.31597868752433,62.2854761285002,62.20969423218292,62.279022472213605,62.29416655634153,62.149479846279455,62.29323965428561,62.202343205592776,62.31945520950469,62.412622694697255,61.7335823258914,61.798228348534316,61.647077978068474,61.40818667089474,61.493236222060965,61.59417911066195,61.583926161986504,62.19431376692125,62.148958388405894,62.16417725175203,62.124823497971725,61.96927492323028,62.00711385341635,62.015453831029326,61.95635641803529,62.024093420799765,61.900316212159034,61.9679742169394,61.97078300852407,62.07754337342076,62.19377998014597,62.03113407435803,62.16697026507055,62.07768013504634,62.13836220444269,62.1061859927514,62.04397100901712,62.00025582647914,61.98437625619483,62.15021334296137,62.13988586447109,62.29627222826523,62.34466465061222,62.120594850832695,62.14314462394692,61.93283873368478,61.90483111863451,62.07924413624513,61.96161967724969,61.757260161445494,61.743105026686884,61.8480179879034,61.7765803871556,62.25764603718415,62.285238868464965,61.96247007484707,61.97408855391631,62.119347181323825,62.17642127825585,61.97669899959613,61.96468958522593,61.77492756621779,61.796549618012016,62.167855460053026,62.23391399806312,62.10271215763313,62.170329389770906,62.164620164753096,62.13845393016292,62.13020787697025,62.19451786138709,61.426684214611676,61.51978332230819,62.2682156596103,62.04615590633713,61.59252697612231,62.01010321834156,62.09604202376047,61.91756347174289,61.84006027388947,61.99051067929346,61.821377438977144]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0.9872</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>0.9777</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>6.7013</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>1.2772</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>0.8066</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>[73.23486195710257,72.1882000409625,69.42670700916464,69.63350935140403,72.6670194843719,72.0806705966509,69.5217031547554,71.42829526543379,69.50851158266651,70.22746900834547,64.30204172975652,63.88725676684568,62.27776787436419,62.211266981440595,63.41710170015381,62.874770195156565,62.19389155602086,62.86679369536159,61.581820205706165,63.73325143257932,48.82374886908263,48.84123478345263,42.1217708257797,33.94456247853101,34.06397682005421,32.38035503583796,32.09552152874269,70.2193079489255,72.64256114861712,64.75877105052191,66.32322855035491,61.936102174684756,61.653702804973136,62.93751305995811,62.49101955866598,61.06627560123584,64.47645816071812,59.74907719550872,55.86635475369863,73.66326901461252,72.40863448395089,72.33321155546825,68.56618033645677,69.78745162886163,72.29598605084584,62.78191006944066,61.69709837223755,63.03275775502695,60.33411623068816,52.972026657625804,53.761979145069745,70.36621296423465,70.38170455117063,60.872216452075826,59.30594754226483,61.29155566242964,60.78392495300746,59.14051170518458,52.15457799772706,52.01666947433221,50.2594501129232,49.96485801688059,52.05898561695115,69.86908801423819,72.14713461190286,54.108942313626976,55.235184065442134,61.94433414034806,59.31633450448262,64.51231242376669,62.09245299158383,49.092496055650464,45.875344044329815,71.81213581739783,72.41847801218205,70.86205817631293,69.89569130349913,66.7359060092042,68.57377674901196,57.31730516978101,59.36457430804171,10.710652560651525,10.05944316741379,62.33088257530663,70.41740820737945,41.33383073828984,62.23307989048911,72.04044146786845,61.20892838317104,50.21221506645752,63.445862489783906,46.295889770782196]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.9822</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.9823</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>5.3354</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>1.7885</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>0.7184</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>C=100, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>[73.144491251225,69.4381368896644,72.24664076070322,72.03613397750927,70.32521797131679,71.46519462749889,71.63093635191396,69.22868468519447,68.99210477013672,71.3930809046851,65.37004237755288,61.41861636847577,61.793722817860115,61.48630506366892,65.0411420786645,61.92973240950609,64.40662444708857,62.791992847709835,62.11507979802137,66.0214528427473,46.82135867094915,47.70233256075899,39.87834963534682,36.2748101050196,37.763003270890266,31.637719289519197,30.779029760798608,71.53674200629926,70.99773387784445,63.60873893183539,66.72548535508398,61.194294082312325,60.52166750262461,63.40335580884803,63.372480730502076,60.97315797036168,64.23628638061007,61.32715820117545,59.59680868850633,72.1607326648431,74.25896253003658,72.15601594647184,72.25460736883302,71.02730344439001,72.10236999631462,62.51180081659018,61.32310477369481,62.759035933351825,61.16916256995003,55.71407241846143,57.253623770093114,71.58822326027052,70.89963701128767,60.77005178787647,59.4651987851919,61.901385783624875,60.48856516653527,59.96477514551269,54.09263599380944,54.95232092662741,50.07920223216571,49.50127434027978,47.43550549811427,68.89925252606562,71.36264962627297,52.08148953637003,54.083958984091296,59.315741123068506,58.75409091625551,64.76902650475488,62.50325796616923,47.98439457760726,45.01620776734565,71.55017215128183,71.3521598395853,69.40181465330646,69.78959267536506,67.3051703566785,68.59257778628105,54.46283244433448,58.09900208308379,9.632365822258663,10.098061568943656,61.007617502579876,71.65821659859596,38.070541483336754,61.99006226739246,72.10663357483388,61.00368176246792,49.91535328914412,63.947626869656446,48.157202157448125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.9603</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>5.2961</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>1.6477</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>2.8843</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>2.8844</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>2.8843</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>[73.46104557887543,71.79094003657158,68.49256574752664,68.97414187866242,71.29014477777083,71.73542972457454,69.81304104802484,70.63661361744835,69.42876551450487,69.54573658626659,63.20046475980787,64.21354908477869,63.40737297650652,63.4772363481573,63.050499385700334,63.242859912701654,62.13473325801068,62.72600515795573,61.657975358197,62.917971579799406,47.842729816180906,49.47011728189834,39.52437484659682,34.51733769332242,34.16400714548971,32.6506522999299,32.07682420775632,69.77945931728185,71.72341407906671,64.94038911937298,66.35264429974134,62.899594968419436,62.38755909132737,61.26119211481424,61.85896572066356,61.69202090189268,64.51986757151232,58.667470830913174,55.80521756821304,73.40608291475735,70.83626119940828,71.09730017178644,68.1135870160869,67.37904466262052,69.78029305631753,62.72994288978502,61.655172914847455,61.367181745280305,60.424074089611956,57.08462545827217,56.49843208080211,70.9275077415146,71.6686292119348,60.93273009203681,61.72077412186056,61.44696243700707,60.728203868592594,60.42583901775593,51.664979350947426,52.050456170814364,49.335373344693394,48.09524821661421,47.6347624091479,70.42201823301292,72.49427602918212,50.431415064758355,53.08329397591878,63.8747142553403,62.55791724632766,65.13724055421292,62.77830133335481,48.01833822050318,45.88383172300809,70.36311589137794,71.77589094581992,69.57505776031113,69.55718292364986,67.06337924350538,68.3513380252613,57.48477832552504,58.406015752517796,10.797800159556893,10.274404769656321,63.05707703303423,70.78483431945976,38.37027592478858,63.114950434983946,71.9132945923362,61.49802498659753,49.95656494325865,64.29211314897847,46.13647289755845]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.9618</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.9241</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>3.6545</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>2.6481</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>0.6642</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>0.8475</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>[71.5807619549349,70.75061347308839,71.01857215155187,71.4332626243048,71.64370366436864,72.16209392229787,69.03442609068475,69.16960073673835,67.94731454386928,69.86216439830426,64.62472334257228,60.11281596445404,61.12088208401629,60.776059468789065,64.79412576739125,61.362712989050465,63.285602240159804,63.32993300238984,60.67745242127073,64.33535424046143,52.85584067775443,54.42161272573597,42.028276798455224,37.52086096785997,40.72214332961694,32.44420700236734,31.25742127621035,70.11804544841942,70.06602389683792,63.82496599001375,66.37841827106803,63.803899604047594,63.03459664271092,64.17009167773405,64.3075961716447,62.567340500527294,64.7928004265981,64.18701781126677,61.775300477751415,70.91229291131759,71.84805159038717,71.2240821195839,71.66120533894585,70.67817543061027,71.36566745652064,64.15214461600519,63.4725901065619,64.20577438802162,63.382210236658835,58.98854067434159,60.26279051979522,69.17985087956936,68.23241453366066,64.11642853237285,62.65395887093898,63.86429553756683,62.71550476380605,61.9942917137911,57.834652039645235,57.91627972068436,52.35450955302497,51.71616432596218,48.385102947750454,66.0829119153767,67.36206987100796,55.1359479928725,56.85767247021169,60.45201922344921,59.15396427551617,63.89231403784239,62.63133023422601,51.00116151209935,49.39201305573292,68.71189057477744,68.8605610502538,66.7872709631959,67.07315978696073,65.2936387230365,66.12410992425029,56.80210934772914,59.01524869419172,9.387570993303164,10.290682959720975,60.14864257757854,71.86224123881348,39.86768327659203,64.0608297234367,70.94009024555447,63.11429505372395,52.5504996356938,63.44886101200065,52.756133636719795]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0.9928</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.9912</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>0.9856</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>8.3344</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>1.0431</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>[69.66493108570499,70.64805241723997,72.79356019974796,70.68354517811584,70.10327509409638,72.23864950208902,69.13109627341423,69.9859194135127,69.1396944261637,71.00079497562989,63.99553220584904,63.79306520178899,63.004118259217,62.98441424794293,63.359937039887186,63.03852913155155,62.1235003429123,62.46403633910323,61.75647364591816,63.35122400560243,46.418110268385355,47.148313756709925,47.02313234174585,33.25918098543835,39.44336146211357,31.701043645504413,30.637292175716468,71.14247047498245,71.80290578775819,66.15098811810554,66.42048802257914,62.148736392145004,60.67464420322281,63.78263197418507,62.15028245234194,61.0032995928122,60.2535538855709,60.94398824986248,57.050112852989166,71.15233758835097,74.10442147579818,73.7900430999088,72.66296645847049,71.33856595994226,71.59384692419482,62.160270289615944,61.106936607885096,62.83021786886209,60.33031162359146,52.69273796388278,54.85296783940501,69.79910509744047,69.51881585345491,61.68969208064997,58.74250794191203,60.97875949353629,60.522905967974935,57.048605700035,52.56708622000905,50.807396868247054,52.08558493515953,51.36493780892494,52.54217152608642,70.02748810169523,71.4076435574446,53.80541373698563,56.5358785155097,59.975971418997396,58.573277978934776,61.610711927220564,60.39657088813953,47.66399152390533,45.417919740626544,73.31853929554396,72.61250399721,70.33751431638692,70.8511680419522,66.41664047614815,66.92804889229451,58.16881647356232,58.91893931153089,12.668115051992608,10.864372326388015,63.43702784846803,72.90934662532496,45.471572777638315,62.563739855780895,72.9471830713872,61.43724296771508,50.437251579864196,60.64727637863071,45.934080959427355]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>5.0756</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>1.7537</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>0.6787</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>[72.89431146837231,71.81234104107155,68.37223739630691,68.6371253989019,70.81351576494768,70.76504144597322,69.9300502944939,70.48580300843803,68.91571408946756,69.33755761836568,64.33899478990438,64.57796516309338,62.82456675759288,62.84174450295727,63.697342794495725,63.31980380580601,62.80648852433735,63.61185840757733,62.34771356310354,64.34788673305133,48.19022774988457,49.626657083318115,39.92199826676082,34.757577095194435,34.28174791831689,32.70683702317956,32.279442230604786,69.6520507738422,72.04727368005317,63.451411998206176,65.45281026262424,62.39529026544194,62.00192937850808,61.863730806195484,62.444651420849816,61.852349625594975,65.19398762545057,59.146568861938036,56.02392690394095,73.46439481123134,71.74337564205702,71.48616766093255,68.09237411990333,68.29731717560051,70.83233323655146,63.1661628100389,61.89828286931209,61.52458355523702,60.84991936762001,57.125339066205996,56.61299415259107,70.59767138170857,71.32750877033939,60.666888923961054,61.52554036296597,61.56651599244292,61.00141726165743,60.1477246796578,51.692861480929906,52.204151529721166,49.51965353027673,47.871263858251766,47.395465716352064,70.06572256443023,72.30283270082933,48.91629938664621,51.431952758133534,63.99335503915697,62.57379468528458,65.06738196540292,62.91517517199436,48.24738691197793,46.09267995900622,69.9125935734461,71.37113010309855,68.94306102792186,68.780397941255,66.12698669201711,67.59048204679443,56.721213613770665,58.2699954156214,10.84263067672456,10.271873347047752,62.86927960968292,69.28892968928687,38.92594668837178,62.66889513589749,72.00441043523806,61.72611156085061,49.859384233492506,64.55438762920849,46.10018454374455]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>1.0210</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>8.2546</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>[61.59429929778567,61.67255301373554,61.82802620075916,61.86439192599219,61.48938448999871,61.700638522292365,61.66899411313613,61.4326680746535,61.788073930499635,61.90012343808791,62.24824887133069,61.99600947303232,61.916866379551244,61.945695265476324,62.17491141495537,61.92616989285228,62.20232951121487,62.10011918054984,62.15770203098134,62.37732359827618,61.3455559483962,61.47285367313959,61.01420545513007,60.65198279466318,60.82023125254466,60.795570678293295,60.74356254384385,62.30187778760854,62.32471753213168,62.22727754868687,62.27576460971243,62.02925406440016,62.0629280437375,62.016934541758445,61.98841817718376,61.99942577749795,61.93192477228288,61.96223266360826,61.85831789898941,62.14022037279458,62.43753979376609,62.10710994254731,62.19093951471544,62.185101257730985,62.298587231655844,62.2258519497207,62.15235135379277,61.91295466582604,61.97824199379955,62.087196413819306,62.07391364089973,62.508833773078045,62.58496051612718,62.09091855976348,62.13387362196749,62.074171691975586,61.999806396144926,61.961812034385446,61.66460463716207,61.55238246982666,61.45624881236104,61.581196683773676,61.41389410819457,62.44690676539004,62.541235612303495,61.678893251820895,61.77171800076927,62.25481320459914,62.25096614290443,62.069936523075675,62.007067049488924,61.47168555644178,61.47354204572626,62.34924858013842,62.40707020954214,62.26166173986111,62.346385795582805,62.400140598523286,62.40582618604903,62.10673431254871,62.197480397144545,60.294095029466966,60.35060706590828,61.99954565685889,61.67607007493116,60.89901758530441,62.06633198518605,62.2104997228778,62.03105459950418,61.63592293134014,62.083847555322045,61.51893558212201]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>D2_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-0.0312</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>-0.0213</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>8.4549</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>0.6474</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>[62.082490896579394,62.07301643473521,62.089155646940604,62.09477956732881,62.08836888043816,62.093007467184485,62.09155381383363,62.08691040254451,62.091120969710424,62.09880007806612,62.12018463528344,62.117235574317256,62.109596379531226,62.11667669209116,62.11804678809231,62.102901720249264,62.11799822843254,62.108573491179996,62.12114297170844,62.13052361207613,62.05957109487051,62.06620023441579,62.051150460638254,62.026029292927326,62.034936983710566,62.04628898736681,62.04530295318666,62.107422862429424,62.1023821546211,62.10448258054816,62.10002524401607,62.08380799472396,62.08765592192434,62.08880665257614,62.08256966415035,62.09004558153069,62.076360095179396,62.08414621339089,62.0846449154768,62.09412419044124,62.107025308044186,62.089669733985076,62.10422630420908,62.095198507658054,62.10138839208994,62.098536416464555,62.09198120731572,62.08727355748209,62.08551376378531,62.10371388948893,62.102638931221314,62.117880261067924,62.12311977452891,62.100042731259656,62.10270664915367,62.07978220749482,62.07683831727272,62.09603932372573,62.083970544168736,62.0616600424145,62.060423126692065,62.071617507453546,62.063972922670764,62.11402010794567,62.11689986116714,62.08393749639295,62.085015221633576,62.10049482527072,62.10638166155559,62.084773843131885,62.083683191459336,62.064413473176145,62.0669557741737,62.104491102078626,62.11126105303759,62.09767356568977,62.10500780393228,62.10418185579634,62.10152768368598,62.101843082119096,62.1086960072914,62.03004122253662,62.03939534383537,62.115628345094386,62.09123253645658,62.045444707653026,62.088058159026886,62.09663716985281,62.078264250012325,62.07077967836301,62.08616939600665,62.069411541623296]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.9512</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>0.9548</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>4.7018</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>1.9839</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>[70.19484500589544,71.62275374965346,68.27929322644599,67.72691579370903,70.72647447289742,69.21109268738186,70.3799852264278,70.63728159760593,67.61927628707215,68.36748356021536,65.03593980402678,65.71225383612409,61.96609737027393,62.00242876462153,64.19568046542602,63.212155692111715,63.55995039442286,64.5819480735829,62.789203503839154,65.11855718135988,48.10095520456943,49.502037365740094,40.1085670698029,34.79933637783389,34.27203016069599,32.72379791207794,32.36925728318883,69.59072427216137,72.2026313373238,62.85987734308698,65.17035892041494,62.21239507449168,61.85314322004926,62.39387549895607,63.03049091176166,62.13854924236485,65.7143583837618,59.55525983991353,56.20974637245105,73.67698824088308,72.23991524056973,71.61935296154495,67.9341710933095,68.64535620188683,71.11778659374548,63.3898924349564,62.3087033952596,61.51847780791361,61.2153993386485,57.12049100144871,56.5929972674382,70.29993103390525,71.04484969677245,60.38698263560528,61.236291987245465,61.7012833134628,61.04349883156279,59.6476264471124,51.63678419411891,52.048774134377595,49.580433591880904,47.77539180104996,47.21893716354295,69.85681309422469,72.13381527284812,47.97503737524342,50.59242811875429,63.95339379313113,62.462658474026526,65.27902943661265,63.267146499216715,48.42873953234168,46.37707353661965,69.72775161674032,71.04609229028503,68.61782950936521,68.40111012028393,65.9885619953626,67.61182827312021,56.22084745993728,57.92322896600002,10.79315247670825,10.318960359611225,62.51777446633541,67.45159262396983,38.95607245494521,62.53137968650124,72.11314540176217,61.88992633348166,49.92759552840147,64.9730245783757,46.100112066244264]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0.9573</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.9164</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>0.9243</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>3.6343</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>2.5141</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>0.7679</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>C=10, gamma=1, epsilo=0.1, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>[68.57959684087946,67.16606272234365,68.00883454187847,69.69236708672544,70.36320427853795,69.28356662431874,67.42146159909831,69.33144211925716,65.3603731177906,67.51438718993354,64.34852320672175,61.23097254681056,62.975548647946155,62.62063289370769,64.83962948528237,61.85935241336139,63.35772318253715,62.851275750778576,61.51755540694748,64.70553373387804,51.6924755801669,52.48363770410196,42.978094782404355,46.64763921085351,46.773160933450306,35.601793083350984,35.281171409646795,70.66689438655179,70.51080275797612,63.52262475041249,66.44431935481724,62.46296266034708,62.06636190629392,63.36366571113257,63.439655131791774,61.59788215104401,63.82957152578542,62.75143088593647,60.067857274489484,69.72342679638855,73.5290878365009,70.02785906828973,70.6993743050443,70.34991696379306,71.91764726431023,64.21241205780548,63.277228491545884,62.43699096608631,61.973630853020495,57.55025813569222,58.911151003175725,70.42820365708056,70.31799117537751,62.711522612878014,61.586681669492535,63.49016702489888,62.009057702652036,60.32663217538647,55.67807969414801,55.96405441482098,50.68248403181524,49.700747294885645,46.97245121330343,68.0333988514983,70.48784768496398,53.96990722720914,55.239071353475076,61.57945540473343,59.85099075489489,63.920336806279714,62.43388795483309,48.89194089150709,46.466336172813996,69.59324404424191,69.90642102979604,67.11471385978278,67.99079957958175,67.09624617833273,68.2312090990872,56.09706537725065,59.003036613754944,9.434203895732246,10.16645506682459,61.33394844098878,69.7462521578513,43.109581479376956,62.8764522168065,70.72209251692465,62.559500408776415,50.664974195489734,63.68461759282512,50.282245975564265]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
